--- a/common/required/kriteria9/aps/template/penilaian.xlsx
+++ b/common/required/kriteria9/aps/template/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akreditasi 140819\Dewan Eksekutif 2016-2021\2019\Kinerja Divisi\Penyempurnaan APS-APT-LH\Instrument Final\IAPS 4.0\Excel APS 4.0 terbaru pasca perban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\php\kriteria\common\required\kriteria9\aps\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2A71D1-2B06-4545-BDDE-9006FAE965B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18688550-2563-4272-B263-9853139004DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="68" r:id="rId1"/>
@@ -90,16 +90,6 @@
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -256,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="429">
   <si>
     <t xml:space="preserve">:   </t>
   </si>
@@ -1863,15 +1853,18 @@
   <si>
     <t>pada PS Lain di PT</t>
   </si>
+  <si>
+    <t>Σ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0E+0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0E+0"/>
   </numFmts>
   <fonts count="40" x14ac:knownFonts="1">
     <font>
@@ -2419,7 +2412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -2666,7 +2659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2709,7 +2702,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2764,13 +2757,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2929,257 +2922,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3725,23 +3468,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="3" customWidth="1"/>
-    <col min="2" max="8" width="8.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.5546875" style="3" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" style="3" customWidth="1"/>
-    <col min="13" max="14" width="3.109375" style="3" customWidth="1"/>
-    <col min="15" max="24" width="8.88671875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="2.88671875" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3.85546875" style="3" customWidth="1"/>
+    <col min="2" max="8" width="8.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="3" customWidth="1"/>
+    <col min="13" max="14" width="3.140625" style="3" customWidth="1"/>
+    <col min="15" max="24" width="8.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3768,7 +3511,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="123" t="s">
         <v>8</v>
       </c>
@@ -3797,7 +3540,7 @@
       <c r="X2" s="123"/>
       <c r="Y2" s="123"/>
     </row>
-    <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
         <v>3</v>
       </c>
@@ -3826,7 +3569,7 @@
       <c r="X3" s="124"/>
       <c r="Y3" s="124"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3853,7 +3596,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
       <c r="C5" s="12" t="s">
@@ -3884,7 +3627,7 @@
       <c r="X5" s="125"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3911,7 +3654,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
@@ -3942,7 +3685,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="12"/>
@@ -3969,7 +3712,7 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3998,7 +3741,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4027,7 +3770,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -4056,7 +3799,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4085,7 +3828,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="9"/>
     </row>
-    <row r="13" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -4114,7 +3857,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4143,7 +3886,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -4172,7 +3915,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4199,7 +3942,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12" t="s">
@@ -4233,7 +3976,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="12"/>
@@ -4260,7 +4003,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -4289,7 +4032,7 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4318,7 +4061,7 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4347,7 +4090,7 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4376,7 +4119,7 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4405,7 +4148,7 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4434,7 +4177,7 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="1:25" s="7" customFormat="1" ht="23.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" s="7" customFormat="1" ht="23.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4463,7 +4206,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4490,7 +4233,7 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="1:25" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="C27" s="12" t="s">
@@ -4521,7 +4264,7 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4548,7 +4291,7 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="C29" s="12" t="s">
@@ -4579,7 +4322,7 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
     </row>
-    <row r="30" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4606,7 +4349,7 @@
       <c r="X30" s="10"/>
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" spans="1:25" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
@@ -4637,7 +4380,7 @@
       <c r="X31" s="125"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4664,7 +4407,7 @@
       <c r="X32" s="10"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="9"/>
       <c r="C33" s="12" t="s">
@@ -4695,7 +4438,7 @@
       <c r="X33" s="127"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -4722,7 +4465,7 @@
       <c r="X34" s="10"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -4749,7 +4492,7 @@
       <c r="X35" s="10"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -4778,7 +4521,7 @@
       <c r="X36" s="10"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -4807,7 +4550,7 @@
       <c r="X37" s="10"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -4836,7 +4579,7 @@
       <c r="X38" s="10"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" s="7" customFormat="1" ht="24.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -4865,7 +4608,7 @@
       <c r="X39" s="10"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" s="7" customFormat="1" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" s="7" customFormat="1" ht="5.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -4892,7 +4635,7 @@
       <c r="X40" s="10"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="9"/>
       <c r="C41" s="12" t="s">
@@ -4923,7 +4666,7 @@
       <c r="X41" s="119"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -4950,7 +4693,7 @@
       <c r="X42" s="10"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="9"/>
       <c r="C43" s="12"/>
@@ -4977,7 +4720,7 @@
       <c r="X43" s="119"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5004,7 +4747,7 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="9"/>
       <c r="C45" s="12"/>
@@ -5035,7 +4778,7 @@
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -5062,7 +4805,7 @@
       <c r="X46" s="10"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="9"/>
       <c r="C47" s="12" t="s">
@@ -5093,7 +4836,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -5120,7 +4863,7 @@
       <c r="X48" s="10"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="9"/>
       <c r="C49" s="12" t="s">
@@ -5151,7 +4894,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -5178,7 +4921,7 @@
       <c r="X50" s="10"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="9"/>
       <c r="C51" s="12" t="s">
@@ -5209,7 +4952,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -5236,7 +4979,7 @@
       <c r="X52" s="10"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="9"/>
       <c r="C53" s="12" t="s">
@@ -5269,7 +5012,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" s="7" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -5296,7 +5039,7 @@
       <c r="X54" s="10"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5323,7 +5066,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5350,7 +5093,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5381,7 +5124,7 @@
       <c r="X57" s="119"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5408,7 +5151,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="16" t="s">
         <v>404</v>
@@ -5441,7 +5184,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="14" t="s">
         <v>1</v>
@@ -5474,7 +5217,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="13"/>
       <c r="C61" s="2"/>
@@ -5557,20 +5300,20 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="5" width="7.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="7.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="5" width="7.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="3" customWidth="1"/>
+    <col min="7" max="9" width="7.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>59</v>
       </c>
@@ -5578,10 +5321,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="146" t="s">
         <v>17</v>
       </c>
@@ -5602,7 +5345,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="146"/>
       <c r="B4" s="146"/>
       <c r="C4" s="146" t="s">
@@ -5619,7 +5362,7 @@
       <c r="J4" s="146"/>
       <c r="K4" s="146"/>
     </row>
-    <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="146"/>
       <c r="B5" s="146"/>
       <c r="C5" s="39" t="s">
@@ -5648,7 +5391,7 @@
       </c>
       <c r="K5" s="146"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -5683,7 +5426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -5698,7 +5441,7 @@
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -5713,7 +5456,7 @@
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -5728,7 +5471,7 @@
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -5743,7 +5486,7 @@
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>5</v>
       </c>
@@ -5758,7 +5501,7 @@
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>62</v>
       </c>
@@ -5801,19 +5544,19 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
-    <col min="3" max="7" width="10.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
@@ -5821,19 +5564,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
         <v>17</v>
       </c>
@@ -5858,7 +5601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="147"/>
       <c r="B8" s="147"/>
       <c r="C8" s="147"/>
@@ -5879,7 +5622,7 @@
       <c r="J8" s="147"/>
       <c r="K8" s="147"/>
     </row>
-    <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="129"/>
       <c r="B9" s="129"/>
       <c r="C9" s="129"/>
@@ -5898,7 +5641,7 @@
       <c r="J9" s="129"/>
       <c r="K9" s="129"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>1</v>
       </c>
@@ -5933,7 +5676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>1</v>
       </c>
@@ -5948,7 +5691,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2</v>
       </c>
@@ -5963,7 +5706,7 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>3</v>
       </c>
@@ -5978,7 +5721,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>4</v>
       </c>
@@ -5993,7 +5736,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>5</v>
       </c>
@@ -6008,7 +5751,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>6</v>
       </c>
@@ -6023,7 +5766,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>7</v>
       </c>
@@ -6038,7 +5781,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>8</v>
       </c>
@@ -6053,7 +5796,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>9</v>
       </c>
@@ -6068,7 +5811,7 @@
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>10</v>
       </c>
@@ -6083,7 +5826,7 @@
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>11</v>
       </c>
@@ -6098,7 +5841,7 @@
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>12</v>
       </c>
@@ -6113,7 +5856,7 @@
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>13</v>
       </c>
@@ -6128,7 +5871,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>14</v>
       </c>
@@ -6143,7 +5886,7 @@
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>15</v>
       </c>
@@ -6158,7 +5901,7 @@
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>16</v>
       </c>
@@ -6173,7 +5916,7 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>17</v>
       </c>
@@ -6188,7 +5931,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>18</v>
       </c>
@@ -6203,7 +5946,7 @@
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>19</v>
       </c>
@@ -6218,7 +5961,7 @@
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>20</v>
       </c>
@@ -6233,7 +5976,7 @@
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>62</v>
       </c>
@@ -6285,21 +6028,21 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="13.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="13.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
@@ -6307,39 +6050,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>17</v>
       </c>
@@ -6371,7 +6114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>1</v>
       </c>
@@ -6403,7 +6146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>1</v>
       </c>
@@ -6417,7 +6160,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2</v>
       </c>
@@ -6431,7 +6174,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>3</v>
       </c>
@@ -6445,7 +6188,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>4</v>
       </c>
@@ -6459,7 +6202,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>5</v>
       </c>
@@ -6473,7 +6216,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>62</v>
       </c>
@@ -6512,20 +6255,20 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>75</v>
       </c>
@@ -6533,15 +6276,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>17</v>
       </c>
@@ -6570,7 +6313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -6599,7 +6342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -6612,7 +6355,7 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -6625,7 +6368,7 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -6638,7 +6381,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -6651,7 +6394,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -6664,7 +6407,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>62</v>
       </c>
@@ -6698,18 +6441,18 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>426</v>
       </c>
@@ -6717,32 +6460,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
     </row>
-    <row r="7" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
         <v>17</v>
       </c>
@@ -6764,7 +6507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="129"/>
       <c r="B8" s="129"/>
       <c r="C8" s="129"/>
@@ -6780,7 +6523,7 @@
       </c>
       <c r="H8" s="129"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>1</v>
       </c>
@@ -6806,7 +6549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>1</v>
       </c>
@@ -6818,7 +6561,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>2</v>
       </c>
@@ -6830,7 +6573,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="44">
         <v>3</v>
       </c>
@@ -6842,7 +6585,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="44">
         <v>4</v>
       </c>
@@ -6854,7 +6597,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>5</v>
       </c>
@@ -6866,7 +6609,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>89</v>
       </c>
@@ -6878,7 +6621,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
@@ -6921,16 +6664,16 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>90</v>
       </c>
@@ -6938,10 +6681,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="148" t="s">
         <v>17</v>
       </c>
@@ -6957,7 +6700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="148"/>
       <c r="B4" s="150"/>
       <c r="C4" s="48" t="s">
@@ -6971,7 +6714,7 @@
       </c>
       <c r="F4" s="148"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -6991,7 +6734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -7006,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -7021,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -7036,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="151" t="s">
         <v>42</v>
       </c>
@@ -7085,16 +6828,16 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>96</v>
       </c>
@@ -7102,10 +6845,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="148" t="s">
         <v>17</v>
       </c>
@@ -7121,7 +6864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="148"/>
       <c r="B4" s="150"/>
       <c r="C4" s="48" t="s">
@@ -7135,7 +6878,7 @@
       </c>
       <c r="F4" s="148"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -7155,7 +6898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -7170,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -7185,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -7200,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="151" t="s">
         <v>42</v>
       </c>
@@ -7247,16 +6990,16 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>98</v>
       </c>
@@ -7264,15 +7007,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="148" t="s">
         <v>17</v>
       </c>
@@ -7288,7 +7031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="148"/>
       <c r="B5" s="148"/>
       <c r="C5" s="82" t="s">
@@ -7302,7 +7045,7 @@
       </c>
       <c r="F5" s="148"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -7322,7 +7065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -7337,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -7352,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -7367,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -7382,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>5</v>
       </c>
@@ -7397,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>6</v>
       </c>
@@ -7412,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>7</v>
       </c>
@@ -7427,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>8</v>
       </c>
@@ -7442,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>9</v>
       </c>
@@ -7457,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -7472,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="151" t="s">
         <v>42</v>
       </c>
@@ -7519,16 +7262,16 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>309</v>
       </c>
@@ -7536,15 +7279,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="148" t="s">
         <v>17</v>
       </c>
@@ -7560,7 +7303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="148"/>
       <c r="B5" s="148"/>
       <c r="C5" s="48" t="s">
@@ -7574,7 +7317,7 @@
       </c>
       <c r="F5" s="148"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -7594,7 +7337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -7609,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -7624,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -7639,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -7654,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>5</v>
       </c>
@@ -7669,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>6</v>
       </c>
@@ -7684,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>7</v>
       </c>
@@ -7699,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>8</v>
       </c>
@@ -7714,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>9</v>
       </c>
@@ -7729,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -7744,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="151" t="s">
         <v>42</v>
       </c>
@@ -7793,17 +7536,17 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>407</v>
       </c>
@@ -7811,15 +7554,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -7833,7 +7576,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -7847,7 +7590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -7855,7 +7598,7 @@
       <c r="C6" s="60"/>
       <c r="D6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -7863,7 +7606,7 @@
       <c r="C7" s="60"/>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -7871,7 +7614,7 @@
       <c r="C8" s="60"/>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -7879,7 +7622,7 @@
       <c r="C9" s="60"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -7887,7 +7630,7 @@
       <c r="C10" s="60"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>62</v>
       </c>
@@ -7915,21 +7658,21 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="57.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="5" max="13" width="6.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>116</v>
       </c>
@@ -7964,7 +7707,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" s="90" t="s">
         <v>294</v>
@@ -7979,7 +7722,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>1</v>
       </c>
@@ -8015,7 +7758,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
         <v>2</v>
       </c>
@@ -8047,7 +7790,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
         <v>3</v>
       </c>
@@ -8079,7 +7822,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>4</v>
       </c>
@@ -8111,7 +7854,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>5</v>
       </c>
@@ -8141,7 +7884,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <v>6</v>
       </c>
@@ -8173,7 +7916,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>7</v>
       </c>
@@ -8205,7 +7948,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="73">
         <v>8</v>
       </c>
@@ -8237,7 +7980,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="73">
         <v>9</v>
       </c>
@@ -8269,7 +8012,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="73">
         <v>10</v>
       </c>
@@ -8291,7 +8034,7 @@
       <c r="J14" s="104"/>
       <c r="K14" s="104"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="73">
         <v>11</v>
       </c>
@@ -8323,7 +8066,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <v>12</v>
       </c>
@@ -8355,7 +8098,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="73">
         <v>13</v>
       </c>
@@ -8387,7 +8130,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="73">
         <v>14</v>
       </c>
@@ -8411,7 +8154,7 @@
       </c>
       <c r="K18" s="104"/>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="73">
         <v>15</v>
       </c>
@@ -8437,7 +8180,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="73">
         <v>16</v>
       </c>
@@ -8467,7 +8210,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <v>17</v>
       </c>
@@ -8493,7 +8236,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="73">
         <v>18</v>
       </c>
@@ -8525,7 +8268,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
         <v>19</v>
       </c>
@@ -8557,7 +8300,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="73">
         <v>20</v>
       </c>
@@ -8589,7 +8332,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="73">
         <v>21</v>
       </c>
@@ -8621,7 +8364,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="73">
         <v>22</v>
       </c>
@@ -8653,7 +8396,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
         <v>23</v>
       </c>
@@ -8685,7 +8428,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="73">
         <v>24</v>
       </c>
@@ -8717,7 +8460,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="73">
         <v>25</v>
       </c>
@@ -8749,7 +8492,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="73">
         <v>26</v>
       </c>
@@ -8779,7 +8522,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="73">
         <v>27</v>
       </c>
@@ -8805,7 +8548,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="73">
         <v>28</v>
       </c>
@@ -8829,7 +8572,7 @@
       <c r="J32" s="104"/>
       <c r="K32" s="104"/>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="73">
         <v>29</v>
       </c>
@@ -8861,7 +8604,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="73">
         <v>30</v>
       </c>
@@ -8893,7 +8636,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="73">
         <v>31</v>
       </c>
@@ -8917,7 +8660,7 @@
       <c r="J35" s="104"/>
       <c r="K35" s="104"/>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="73">
         <v>32</v>
       </c>
@@ -8949,7 +8692,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="73">
         <v>33</v>
       </c>
@@ -8973,7 +8716,7 @@
       <c r="J37" s="104"/>
       <c r="K37" s="104"/>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="73">
         <v>34</v>
       </c>
@@ -9001,7 +8744,7 @@
       <c r="J38" s="104"/>
       <c r="K38" s="104"/>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="73">
         <v>35</v>
       </c>
@@ -9025,7 +8768,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="104"/>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
         <v>36</v>
       </c>
@@ -9053,7 +8796,7 @@
       <c r="J40" s="104"/>
       <c r="K40" s="104"/>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="73">
         <v>37</v>
       </c>
@@ -9081,7 +8824,7 @@
       <c r="J41" s="104"/>
       <c r="K41" s="104"/>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="73">
         <v>38</v>
       </c>
@@ -9105,7 +8848,7 @@
       </c>
       <c r="K42" s="104"/>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="73">
         <v>39</v>
       </c>
@@ -9129,7 +8872,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="73">
         <v>40</v>
       </c>
@@ -9155,7 +8898,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="73">
         <v>41</v>
       </c>
@@ -9181,7 +8924,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="73">
         <v>42</v>
       </c>
@@ -9211,7 +8954,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="73">
         <v>43</v>
       </c>
@@ -9241,7 +8984,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="73">
         <v>44</v>
       </c>
@@ -9271,7 +9014,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="73">
         <v>45</v>
       </c>
@@ -9301,7 +9044,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E51" s="111">
         <f>COUNTA(E4:E49)</f>
         <v>33</v>
@@ -9397,17 +9140,17 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="18" customWidth="1"/>
-    <col min="4" max="5" width="16.5546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="18" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>408</v>
       </c>
@@ -9415,15 +9158,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -9443,7 +9186,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -9463,7 +9206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -9471,9 +9214,9 @@
       <c r="C6" s="60"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="116"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="115"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -9481,9 +9224,9 @@
       <c r="C7" s="60"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="116"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="115"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -9491,9 +9234,9 @@
       <c r="C8" s="60"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="116"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="115"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -9501,9 +9244,9 @@
       <c r="C9" s="60"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="116"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="115"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -9511,9 +9254,9 @@
       <c r="C10" s="60"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="116"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>62</v>
       </c>
@@ -9521,7 +9264,7 @@
       <c r="C11" s="60"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="116"/>
+      <c r="F11" s="115"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9544,16 +9287,16 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>409</v>
       </c>
@@ -9561,16 +9304,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="E2" s="56"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>116</v>
       </c>
@@ -9584,7 +9327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>1</v>
       </c>
@@ -9598,7 +9341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>58</v>
       </c>
@@ -9608,7 +9351,7 @@
       <c r="C6" s="154"/>
       <c r="D6" s="155"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>1</v>
       </c>
@@ -9616,7 +9359,7 @@
       <c r="C7" s="61"/>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>2</v>
       </c>
@@ -9624,7 +9367,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>3</v>
       </c>
@@ -9632,7 +9375,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>4</v>
       </c>
@@ -9640,7 +9383,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>5</v>
       </c>
@@ -9648,7 +9391,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>62</v>
       </c>
@@ -9680,16 +9423,16 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>409</v>
       </c>
@@ -9697,15 +9440,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>116</v>
       </c>
@@ -9719,7 +9462,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>1</v>
       </c>
@@ -9733,7 +9476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>120</v>
       </c>
@@ -9743,7 +9486,7 @@
       <c r="C6" s="154"/>
       <c r="D6" s="155"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>1</v>
       </c>
@@ -9751,7 +9494,7 @@
       <c r="C7" s="61"/>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>2</v>
       </c>
@@ -9759,7 +9502,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>3</v>
       </c>
@@ -9767,7 +9510,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>4</v>
       </c>
@@ -9775,7 +9518,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>5</v>
       </c>
@@ -9783,7 +9526,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>62</v>
       </c>
@@ -9791,13 +9534,13 @@
       <c r="C12" s="61"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
     </row>
   </sheetData>
@@ -9824,16 +9567,16 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>409</v>
       </c>
@@ -9841,15 +9584,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>116</v>
       </c>
@@ -9863,7 +9606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>1</v>
       </c>
@@ -9877,7 +9620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>122</v>
       </c>
@@ -9887,7 +9630,7 @@
       <c r="C6" s="154"/>
       <c r="D6" s="155"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>1</v>
       </c>
@@ -9895,7 +9638,7 @@
       <c r="C7" s="61"/>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>2</v>
       </c>
@@ -9903,7 +9646,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>3</v>
       </c>
@@ -9911,7 +9654,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>4</v>
       </c>
@@ -9919,7 +9662,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>5</v>
       </c>
@@ -9927,7 +9670,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>62</v>
       </c>
@@ -9935,13 +9678,13 @@
       <c r="C12" s="61"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
     </row>
   </sheetData>
@@ -9968,16 +9711,16 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>409</v>
       </c>
@@ -9985,15 +9728,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>116</v>
       </c>
@@ -10007,7 +9750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>1</v>
       </c>
@@ -10021,7 +9764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>124</v>
       </c>
@@ -10031,7 +9774,7 @@
       <c r="C6" s="154"/>
       <c r="D6" s="155"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>1</v>
       </c>
@@ -10039,7 +9782,7 @@
       <c r="C7" s="61"/>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>2</v>
       </c>
@@ -10047,7 +9790,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>3</v>
       </c>
@@ -10055,7 +9798,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>4</v>
       </c>
@@ -10063,7 +9806,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>5</v>
       </c>
@@ -10071,7 +9814,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>62</v>
       </c>
@@ -10103,18 +9846,18 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="3" customWidth="1"/>
-    <col min="3" max="5" width="12.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="10" width="12.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="10" width="12.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>132</v>
       </c>
@@ -10122,10 +9865,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
@@ -10145,7 +9888,7 @@
       <c r="I3" s="131"/>
       <c r="J3" s="132"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="157"/>
       <c r="B4" s="157"/>
       <c r="C4" s="64" t="s">
@@ -10173,7 +9916,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -10205,7 +9948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -10221,7 +9964,7 @@
       <c r="I6" s="85"/>
       <c r="J6" s="86"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="49" t="s">
         <v>363</v>
@@ -10241,7 +9984,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="49" t="s">
         <v>364</v>
@@ -10261,7 +10004,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="49" t="s">
         <v>365</v>
@@ -10281,7 +10024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="49" t="s">
         <v>366</v>
@@ -10301,7 +10044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2</v>
       </c>
@@ -10323,7 +10066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="156" t="s">
         <v>42</v>
       </c>
@@ -10361,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>3</v>
       </c>
@@ -10383,7 +10126,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>4</v>
       </c>
@@ -10405,7 +10148,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="156" t="s">
         <v>42</v>
       </c>
@@ -10443,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>5</v>
       </c>
@@ -10465,7 +10208,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>6</v>
       </c>
@@ -10487,7 +10230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>6</v>
       </c>
@@ -10509,7 +10252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="156" t="s">
         <v>42</v>
       </c>
@@ -10577,18 +10320,18 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>144</v>
       </c>
@@ -10605,7 +10348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10618,7 +10361,7 @@
       <c r="J2" s="3"/>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
@@ -10633,7 +10376,7 @@
       <c r="J3" s="3"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -10646,7 +10389,7 @@
       <c r="J4" s="3"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>16</v>
       </c>
@@ -10661,7 +10404,7 @@
       <c r="J5" s="3"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
         <v>17</v>
       </c>
@@ -10698,7 +10441,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="129"/>
       <c r="B8" s="129"/>
       <c r="C8" s="129"/>
@@ -10729,7 +10472,7 @@
       <c r="N8" s="129"/>
       <c r="O8" s="129"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -10776,7 +10519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="67">
         <v>1</v>
       </c>
@@ -10795,7 +10538,7 @@
       <c r="N10" s="68"/>
       <c r="O10" s="71"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
         <v>2</v>
       </c>
@@ -10814,7 +10557,7 @@
       <c r="N11" s="68"/>
       <c r="O11" s="71"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
         <v>3</v>
       </c>
@@ -10833,7 +10576,7 @@
       <c r="N12" s="68"/>
       <c r="O12" s="71"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
         <v>4</v>
       </c>
@@ -10852,7 +10595,7 @@
       <c r="N13" s="68"/>
       <c r="O13" s="71"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
         <v>5</v>
       </c>
@@ -10871,7 +10614,7 @@
       <c r="N14" s="68"/>
       <c r="O14" s="71"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
         <v>6</v>
       </c>
@@ -10890,7 +10633,7 @@
       <c r="N15" s="68"/>
       <c r="O15" s="71"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
         <v>7</v>
       </c>
@@ -10909,7 +10652,7 @@
       <c r="N16" s="68"/>
       <c r="O16" s="71"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
         <v>8</v>
       </c>
@@ -10928,7 +10671,7 @@
       <c r="N17" s="68"/>
       <c r="O17" s="71"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
         <v>9</v>
       </c>
@@ -10947,7 +10690,7 @@
       <c r="N18" s="68"/>
       <c r="O18" s="71"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
         <v>10</v>
       </c>
@@ -10966,7 +10709,7 @@
       <c r="N19" s="68"/>
       <c r="O19" s="71"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="67">
         <v>11</v>
       </c>
@@ -10985,7 +10728,7 @@
       <c r="N20" s="68"/>
       <c r="O20" s="71"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
         <v>12</v>
       </c>
@@ -11004,7 +10747,7 @@
       <c r="N21" s="68"/>
       <c r="O21" s="71"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>13</v>
       </c>
@@ -11023,7 +10766,7 @@
       <c r="N22" s="68"/>
       <c r="O22" s="71"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
         <v>14</v>
       </c>
@@ -11042,7 +10785,7 @@
       <c r="N23" s="68"/>
       <c r="O23" s="71"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
         <v>15</v>
       </c>
@@ -11061,7 +10804,7 @@
       <c r="N24" s="68"/>
       <c r="O24" s="71"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
         <v>16</v>
       </c>
@@ -11080,7 +10823,7 @@
       <c r="N25" s="68"/>
       <c r="O25" s="71"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <v>17</v>
       </c>
@@ -11099,7 +10842,7 @@
       <c r="N26" s="68"/>
       <c r="O26" s="71"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
         <v>89</v>
       </c>
@@ -11157,19 +10900,19 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>312</v>
       </c>
@@ -11177,10 +10920,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>17</v>
       </c>
@@ -11200,7 +10943,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>1</v>
       </c>
@@ -11220,7 +10963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>1</v>
       </c>
@@ -11228,9 +10971,9 @@
       <c r="C5" s="35"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="116"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="115"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -11238,9 +10981,9 @@
       <c r="C6" s="35"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="116"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="115"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>3</v>
       </c>
@@ -11248,9 +10991,9 @@
       <c r="C7" s="35"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="116"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="115"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>4</v>
       </c>
@@ -11258,9 +11001,9 @@
       <c r="C8" s="35"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="116"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="115"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>5</v>
       </c>
@@ -11268,9 +11011,9 @@
       <c r="C9" s="35"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="116"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="115"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>6</v>
       </c>
@@ -11278,7 +11021,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="116"/>
+      <c r="F10" s="115"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11300,17 +11043,17 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="6" width="9.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="6" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>164</v>
       </c>
@@ -11318,10 +11061,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
         <v>17</v>
       </c>
@@ -11338,7 +11081,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="150"/>
       <c r="B4" s="150"/>
       <c r="C4" s="72" t="s">
@@ -11355,7 +11098,7 @@
       </c>
       <c r="G4" s="150"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -11378,7 +11121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -11391,7 +11134,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -11404,7 +11147,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -11417,7 +11160,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -11430,7 +11173,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -11443,7 +11186,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="164" t="s">
         <v>42</v>
       </c>
@@ -11493,19 +11236,19 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>177</v>
       </c>
@@ -11513,15 +11256,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -11541,7 +11284,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -11561,7 +11304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -11571,7 +11314,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -11581,7 +11324,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -11591,7 +11334,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -11601,7 +11344,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -11611,7 +11354,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>6</v>
       </c>
@@ -11621,7 +11364,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>7</v>
       </c>
@@ -11631,7 +11374,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>8</v>
       </c>
@@ -11641,7 +11384,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>9</v>
       </c>
@@ -11651,7 +11394,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>10</v>
       </c>
@@ -11661,7 +11404,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>11</v>
       </c>
@@ -11671,7 +11414,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -11681,7 +11424,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>62</v>
       </c>
@@ -11707,16 +11450,16 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>274</v>
       </c>
@@ -11730,7 +11473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -11739,7 +11482,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>275</v>
@@ -11750,7 +11493,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -11759,7 +11502,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>276</v>
@@ -11770,7 +11513,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>277</v>
@@ -11781,7 +11524,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>278</v>
@@ -11792,7 +11535,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>279</v>
@@ -11803,7 +11546,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>280</v>
@@ -11814,7 +11557,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>281</v>
@@ -11825,7 +11568,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>282</v>
@@ -11836,7 +11579,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>283</v>
@@ -11847,7 +11590,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11856,7 +11599,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="128" t="s">
         <v>116</v>
       </c>
@@ -11875,7 +11618,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="129"/>
       <c r="B15" s="129"/>
       <c r="C15" s="129"/>
@@ -11890,7 +11633,7 @@
       </c>
       <c r="G15" s="129"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>1</v>
       </c>
@@ -11911,7 +11654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>1</v>
       </c>
@@ -11922,7 +11665,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2</v>
       </c>
@@ -11933,7 +11676,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>3</v>
       </c>
@@ -11944,7 +11687,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>4</v>
       </c>
@@ -11955,7 +11698,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>5</v>
       </c>
@@ -11998,19 +11741,19 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>182</v>
       </c>
@@ -12018,15 +11761,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -12046,7 +11789,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -12066,7 +11809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -12076,7 +11819,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -12086,7 +11829,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -12096,7 +11839,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -12106,7 +11849,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -12116,7 +11859,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>6</v>
       </c>
@@ -12126,7 +11869,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>7</v>
       </c>
@@ -12136,7 +11879,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>8</v>
       </c>
@@ -12146,7 +11889,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>9</v>
       </c>
@@ -12156,7 +11899,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>10</v>
       </c>
@@ -12166,7 +11909,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>11</v>
       </c>
@@ -12176,7 +11919,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -12186,7 +11929,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>62</v>
       </c>
@@ -12216,19 +11959,19 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>185</v>
       </c>
@@ -12236,15 +11979,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -12264,7 +12007,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -12284,7 +12027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -12294,7 +12037,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -12304,7 +12047,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -12314,7 +12057,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -12324,7 +12067,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -12334,7 +12077,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>6</v>
       </c>
@@ -12344,7 +12087,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>7</v>
       </c>
@@ -12354,7 +12097,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>8</v>
       </c>
@@ -12364,7 +12107,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>9</v>
       </c>
@@ -12374,7 +12117,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>10</v>
       </c>
@@ -12384,7 +12127,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>11</v>
       </c>
@@ -12394,7 +12137,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -12404,7 +12147,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>62</v>
       </c>
@@ -12434,16 +12177,16 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>188</v>
       </c>
@@ -12451,10 +12194,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="157" t="s">
         <v>17</v>
       </c>
@@ -12470,7 +12213,7 @@
       <c r="E3" s="157"/>
       <c r="F3" s="157"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="157"/>
       <c r="B4" s="157"/>
       <c r="C4" s="157"/>
@@ -12484,7 +12227,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -12504,7 +12247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -12516,7 +12259,7 @@
       <c r="E6" s="108"/>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -12528,7 +12271,7 @@
       <c r="E7" s="108"/>
       <c r="F7" s="108"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -12566,19 +12309,19 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="3" customWidth="1"/>
-    <col min="4" max="6" width="7.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="75"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="75"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>194</v>
       </c>
@@ -12586,32 +12329,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="H2" s="56"/>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="157" t="s">
         <v>17</v>
       </c>
@@ -12630,7 +12373,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="157"/>
       <c r="B8" s="157"/>
       <c r="C8" s="157"/>
@@ -12645,7 +12388,7 @@
       </c>
       <c r="G8" s="157"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1</v>
       </c>
@@ -12668,7 +12411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>1</v>
       </c>
@@ -12680,7 +12423,7 @@
       <c r="G10" s="34"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2</v>
       </c>
@@ -12692,7 +12435,7 @@
       <c r="G11" s="34"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>3</v>
       </c>
@@ -12704,7 +12447,7 @@
       <c r="G12" s="34"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>4</v>
       </c>
@@ -12716,7 +12459,7 @@
       <c r="G13" s="34"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>5</v>
       </c>
@@ -12728,7 +12471,7 @@
       <c r="G14" s="34"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>62</v>
       </c>
@@ -12790,19 +12533,19 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="3" customWidth="1"/>
-    <col min="4" max="6" width="7.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="75"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="75"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>200</v>
       </c>
@@ -12810,38 +12553,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="H2" s="75"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>201</v>
       </c>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="157" t="s">
         <v>17</v>
       </c>
@@ -12860,7 +12603,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="157"/>
       <c r="B9" s="157"/>
       <c r="C9" s="157"/>
@@ -12875,7 +12618,7 @@
       </c>
       <c r="G9" s="157"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>1</v>
       </c>
@@ -12898,7 +12641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>1</v>
       </c>
@@ -12910,7 +12653,7 @@
       <c r="G11" s="34"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2</v>
       </c>
@@ -12922,7 +12665,7 @@
       <c r="G12" s="34"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>3</v>
       </c>
@@ -12934,7 +12677,7 @@
       <c r="G13" s="34"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>4</v>
       </c>
@@ -12946,7 +12689,7 @@
       <c r="G14" s="34"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>5</v>
       </c>
@@ -12958,7 +12701,7 @@
       <c r="G15" s="34"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>62</v>
       </c>
@@ -13018,15 +12761,15 @@
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="10.5546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="10" width="10.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>202</v>
       </c>
@@ -13035,17 +12778,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>203</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="157" t="s">
         <v>204</v>
       </c>
@@ -13066,7 +12809,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="157"/>
       <c r="B5" s="157"/>
       <c r="C5" s="27" t="s">
@@ -13087,7 +12830,7 @@
       <c r="H5" s="157"/>
       <c r="I5" s="157"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -13116,7 +12859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
@@ -13131,7 +12874,7 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
@@ -13146,7 +12889,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
@@ -13161,7 +12904,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="77"/>
       <c r="B10" s="77"/>
       <c r="C10" s="77"/>
@@ -13172,7 +12915,7 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>214</v>
       </c>
@@ -13185,7 +12928,7 @@
       <c r="H11" s="77"/>
       <c r="I11" s="77"/>
     </row>
-    <row r="12" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="157" t="s">
         <v>204</v>
       </c>
@@ -13208,7 +12951,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="157"/>
       <c r="B13" s="157"/>
       <c r="C13" s="27" t="s">
@@ -13235,7 +12978,7 @@
       <c r="J13" s="157"/>
       <c r="K13" s="157"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>1</v>
       </c>
@@ -13268,7 +13011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>222</v>
       </c>
@@ -13285,7 +13028,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>223</v>
       </c>
@@ -13302,7 +13045,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
@@ -13319,7 +13062,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
@@ -13336,7 +13079,7 @@
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="77"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -13349,7 +13092,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="77"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>224</v>
       </c>
@@ -13364,7 +13107,7 @@
       <c r="J20" s="77"/>
       <c r="K20" s="77"/>
     </row>
-    <row r="21" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="148" t="s">
         <v>204</v>
       </c>
@@ -13387,7 +13130,7 @@
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="148"/>
       <c r="B22" s="157"/>
       <c r="C22" s="27" t="s">
@@ -13408,7 +13151,7 @@
       <c r="J22" s="77"/>
       <c r="K22" s="77"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>1</v>
       </c>
@@ -13435,7 +13178,7 @@
       <c r="J23" s="77"/>
       <c r="K23" s="77"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>39</v>
       </c>
@@ -13452,7 +13195,7 @@
       <c r="J24" s="77"/>
       <c r="K24" s="77"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>40</v>
       </c>
@@ -13469,7 +13212,7 @@
       <c r="J25" s="77"/>
       <c r="K25" s="77"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
@@ -13486,7 +13229,7 @@
       <c r="J26" s="77"/>
       <c r="K26" s="77"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="77"/>
       <c r="B27" s="77"/>
       <c r="C27" s="77"/>
@@ -13499,7 +13242,7 @@
       <c r="J27" s="77"/>
       <c r="K27" s="77"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>226</v>
       </c>
@@ -13514,7 +13257,7 @@
       <c r="J28" s="77"/>
       <c r="K28" s="77"/>
     </row>
-    <row r="29" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
         <v>204</v>
       </c>
@@ -13537,7 +13280,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="157"/>
       <c r="B30" s="157"/>
       <c r="C30" s="27" t="s">
@@ -13564,7 +13307,7 @@
       <c r="J30" s="157"/>
       <c r="K30" s="157"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>1</v>
       </c>
@@ -13597,7 +13340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>222</v>
       </c>
@@ -13614,7 +13357,7 @@
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>223</v>
       </c>
@@ -13631,7 +13374,7 @@
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>38</v>
       </c>
@@ -13648,7 +13391,7 @@
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>39</v>
       </c>
@@ -13665,7 +13408,7 @@
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>40</v>
       </c>
@@ -13723,15 +13466,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="3" customWidth="1"/>
-    <col min="2" max="7" width="13.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.5703125" style="3" customWidth="1"/>
+    <col min="2" max="7" width="13.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>227</v>
       </c>
@@ -13742,13 +13485,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>203</v>
       </c>
@@ -13756,7 +13499,7 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="157" t="s">
         <v>189</v>
       </c>
@@ -13775,7 +13518,7 @@
       <c r="F4" s="157"/>
       <c r="G4" s="157"/>
     </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="157"/>
       <c r="B5" s="157"/>
       <c r="C5" s="157"/>
@@ -13790,7 +13533,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -13813,7 +13556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
@@ -13824,7 +13567,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
@@ -13835,7 +13578,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
@@ -13846,36 +13589,36 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="116">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="116">
         <f t="shared" ref="C10:G10" si="0">SUM(C7:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="77"/>
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
@@ -13884,7 +13627,7 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>233</v>
       </c>
@@ -13892,7 +13635,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="157" t="s">
         <v>189</v>
       </c>
@@ -13908,7 +13651,7 @@
       <c r="E13" s="157"/>
       <c r="F13" s="157"/>
     </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="157"/>
       <c r="B14" s="157"/>
       <c r="C14" s="157"/>
@@ -13922,7 +13665,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>1</v>
       </c>
@@ -13942,7 +13685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>38</v>
       </c>
@@ -13952,7 +13695,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>39</v>
       </c>
@@ -13962,7 +13705,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>40</v>
       </c>
@@ -13972,32 +13715,32 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="117">
+      <c r="B19" s="116">
         <f>SUM(B16:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="117">
+      <c r="C19" s="116">
         <f t="shared" ref="C19:F19" si="1">SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="117">
+      <c r="E19" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="117">
+      <c r="F19" s="116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>237</v>
       </c>
@@ -14005,7 +13748,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
     </row>
-    <row r="22" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="157" t="s">
         <v>189</v>
       </c>
@@ -14021,7 +13764,7 @@
       <c r="E22" s="157"/>
       <c r="F22" s="157"/>
     </row>
-    <row r="23" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="157"/>
       <c r="B23" s="157"/>
       <c r="C23" s="157"/>
@@ -14035,7 +13778,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>1</v>
       </c>
@@ -14055,7 +13798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>38</v>
       </c>
@@ -14065,7 +13808,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>39</v>
       </c>
@@ -14075,7 +13818,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>40</v>
       </c>
@@ -14085,27 +13828,27 @@
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="117">
+      <c r="B28" s="116">
         <f>SUM(B25:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="117">
+      <c r="C28" s="116">
         <f t="shared" ref="C28:F28" si="2">SUM(C25:C27)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="117">
+      <c r="D28" s="116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E28" s="117">
+      <c r="E28" s="116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="117">
+      <c r="F28" s="116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14144,15 +13887,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="3" customWidth="1"/>
-    <col min="2" max="6" width="13.109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.5703125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="13.140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>238</v>
       </c>
@@ -14163,13 +13906,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>239</v>
       </c>
@@ -14177,7 +13920,7 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="157" t="s">
         <v>189</v>
       </c>
@@ -14193,7 +13936,7 @@
       <c r="E4" s="157"/>
       <c r="F4" s="157"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="157"/>
       <c r="B5" s="157"/>
       <c r="C5" s="157"/>
@@ -14207,7 +13950,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -14227,7 +13970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
@@ -14237,7 +13980,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
@@ -14247,7 +13990,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
@@ -14257,27 +14000,27 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="116">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="116">
         <f t="shared" ref="C10:F10" si="0">SUM(C7:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14309,16 +14052,16 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.5546875" style="3" customWidth="1"/>
-    <col min="4" max="6" width="17.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="17.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>243</v>
       </c>
@@ -14326,15 +14069,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="157" t="s">
         <v>189</v>
       </c>
@@ -14350,7 +14093,7 @@
       <c r="E4" s="157"/>
       <c r="F4" s="157"/>
     </row>
-    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="157"/>
       <c r="B5" s="157"/>
       <c r="C5" s="157"/>
@@ -14364,7 +14107,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -14384,7 +14127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
@@ -14394,7 +14137,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
@@ -14404,7 +14147,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
@@ -14414,32 +14157,32 @@
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="116">
         <f>SUM(B7:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="116">
         <f t="shared" ref="C10:F10" si="0">SUM(C7:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="116">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="77"/>
       <c r="B11" s="78"/>
       <c r="C11" s="77"/>
@@ -14447,19 +14190,19 @@
       <c r="E11" s="77"/>
       <c r="F11" s="77"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="63"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="63"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
     </row>
   </sheetData>
@@ -14488,14 +14231,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="3" width="18.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>247</v>
       </c>
@@ -14503,15 +14246,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="157" t="s">
         <v>189</v>
       </c>
@@ -14522,12 +14265,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="157"/>
       <c r="B5" s="157"/>
       <c r="C5" s="157"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -14538,28 +14281,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
@@ -14587,27 +14330,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="7" width="25.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="25.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -14615,25 +14358,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="s">
         <v>17</v>
       </c>
@@ -14661,7 +14404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="135"/>
       <c r="B10" s="135"/>
       <c r="C10" s="21" t="s">
@@ -14679,7 +14422,7 @@
       <c r="I10" s="135"/>
       <c r="J10" s="134"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>1</v>
       </c>
@@ -14711,10 +14454,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -14725,9 +14466,9 @@
       <c r="I12" s="24"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>2</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="117" t="s">
+        <v>428</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -14738,133 +14479,6 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>3</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>4</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>5</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>6</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>7</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>8</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>9</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>10</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="115"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14878,40 +14492,13 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="44" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="43" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:E15">
-    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E22">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:E16">
-    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:E17">
-    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E21">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:E20">
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:E19">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:E18">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E22" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$B$6:$B$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -14936,17 +14523,17 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="12.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>249</v>
       </c>
@@ -14954,15 +14541,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="157" t="s">
         <v>116</v>
       </c>
@@ -14979,7 +14566,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="157"/>
       <c r="B5" s="157"/>
       <c r="C5" s="27" t="s">
@@ -14996,7 +14583,7 @@
       </c>
       <c r="G5" s="157"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -15019,7 +14606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -15032,7 +14619,7 @@
       <c r="F7" s="79"/>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -15045,7 +14632,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -15058,7 +14645,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -15071,7 +14658,7 @@
       <c r="F10" s="79"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>5</v>
       </c>
@@ -15084,7 +14671,7 @@
       <c r="F11" s="79"/>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>6</v>
       </c>
@@ -15097,7 +14684,7 @@
       <c r="F12" s="79"/>
       <c r="G12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>7</v>
       </c>
@@ -15110,7 +14697,7 @@
       <c r="F13" s="79"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="166" t="s">
         <v>42</v>
       </c>
@@ -15148,16 +14735,16 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>383</v>
       </c>
@@ -15165,15 +14752,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="148" t="s">
         <v>17</v>
       </c>
@@ -15189,7 +14776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="148"/>
       <c r="B5" s="148"/>
       <c r="C5" s="82" t="s">
@@ -15203,7 +14790,7 @@
       </c>
       <c r="F5" s="148"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -15223,7 +14810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -15238,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -15253,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -15268,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -15283,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>5</v>
       </c>
@@ -15298,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>6</v>
       </c>
@@ -15313,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>7</v>
       </c>
@@ -15328,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>8</v>
       </c>
@@ -15343,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>9</v>
       </c>
@@ -15358,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -15373,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="151" t="s">
         <v>42</v>
       </c>
@@ -15419,16 +15006,16 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="3" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>257</v>
       </c>
@@ -15436,15 +15023,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="148" t="s">
         <v>17</v>
       </c>
@@ -15460,7 +15047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="148"/>
       <c r="B5" s="148"/>
       <c r="C5" s="48" t="s">
@@ -15474,7 +15061,7 @@
       </c>
       <c r="F5" s="148"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -15494,7 +15081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -15509,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -15524,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -15539,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -15554,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>5</v>
       </c>
@@ -15569,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>6</v>
       </c>
@@ -15584,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>7</v>
       </c>
@@ -15599,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>8</v>
       </c>
@@ -15614,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>9</v>
       </c>
@@ -15629,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -15644,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="151" t="s">
         <v>42</v>
       </c>
@@ -15693,17 +15280,17 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>258</v>
       </c>
@@ -15711,15 +15298,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -15733,7 +15320,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -15747,7 +15334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -15755,7 +15342,7 @@
       <c r="C6" s="60"/>
       <c r="D6" s="25"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -15763,7 +15350,7 @@
       <c r="C7" s="60"/>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -15771,7 +15358,7 @@
       <c r="C8" s="60"/>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -15779,7 +15366,7 @@
       <c r="C9" s="60"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -15787,7 +15374,7 @@
       <c r="C10" s="60"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>62</v>
       </c>
@@ -15815,17 +15402,17 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="18" customWidth="1"/>
-    <col min="4" max="5" width="16.5546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="18" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>424</v>
       </c>
@@ -15833,15 +15420,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>17</v>
       </c>
@@ -15861,7 +15448,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -15881,7 +15468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -15889,9 +15476,9 @@
       <c r="C6" s="60"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="116"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="115"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2</v>
       </c>
@@ -15899,9 +15486,9 @@
       <c r="C7" s="60"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="116"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="115"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>3</v>
       </c>
@@ -15909,9 +15496,9 @@
       <c r="C8" s="60"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="116"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="115"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -15919,9 +15506,9 @@
       <c r="C9" s="60"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="116"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="115"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>5</v>
       </c>
@@ -15929,9 +15516,9 @@
       <c r="C10" s="60"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="116"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="115"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>62</v>
       </c>
@@ -15939,7 +15526,7 @@
       <c r="C11" s="60"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="116"/>
+      <c r="F11" s="115"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15962,16 +15549,16 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>425</v>
       </c>
@@ -15979,22 +15566,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="E2" s="109"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>374</v>
       </c>
       <c r="E3" s="56"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>116</v>
       </c>
@@ -16008,7 +15595,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>1</v>
       </c>
@@ -16022,7 +15609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>58</v>
       </c>
@@ -16032,7 +15619,7 @@
       <c r="C7" s="154"/>
       <c r="D7" s="155"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>1</v>
       </c>
@@ -16040,7 +15627,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>2</v>
       </c>
@@ -16048,7 +15635,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>3</v>
       </c>
@@ -16056,7 +15643,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>4</v>
       </c>
@@ -16064,7 +15651,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>5</v>
       </c>
@@ -16072,7 +15659,7 @@
       <c r="C12" s="61"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>62</v>
       </c>
@@ -16104,16 +15691,16 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>425</v>
       </c>
@@ -16121,22 +15708,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="E2" s="109"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>374</v>
       </c>
       <c r="E3" s="56"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>116</v>
       </c>
@@ -16150,7 +15737,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>1</v>
       </c>
@@ -16164,7 +15751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>120</v>
       </c>
@@ -16174,7 +15761,7 @@
       <c r="C7" s="154"/>
       <c r="D7" s="155"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>1</v>
       </c>
@@ -16182,7 +15769,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>2</v>
       </c>
@@ -16190,7 +15777,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>3</v>
       </c>
@@ -16198,7 +15785,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>4</v>
       </c>
@@ -16206,7 +15793,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>5</v>
       </c>
@@ -16214,7 +15801,7 @@
       <c r="C12" s="61"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>62</v>
       </c>
@@ -16222,13 +15809,13 @@
       <c r="C13" s="61"/>
       <c r="D13" s="62"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
     </row>
   </sheetData>
@@ -16255,16 +15842,16 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>425</v>
       </c>
@@ -16272,21 +15859,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>374</v>
       </c>
       <c r="E3" s="56"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>116</v>
       </c>
@@ -16300,7 +15887,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>1</v>
       </c>
@@ -16314,7 +15901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>122</v>
       </c>
@@ -16324,7 +15911,7 @@
       <c r="C7" s="154"/>
       <c r="D7" s="155"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>1</v>
       </c>
@@ -16332,7 +15919,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>2</v>
       </c>
@@ -16340,7 +15927,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>3</v>
       </c>
@@ -16348,7 +15935,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>4</v>
       </c>
@@ -16356,7 +15943,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>5</v>
       </c>
@@ -16364,7 +15951,7 @@
       <c r="C12" s="61"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>62</v>
       </c>
@@ -16372,13 +15959,13 @@
       <c r="C13" s="61"/>
       <c r="D13" s="62"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
     </row>
   </sheetData>
@@ -16405,16 +15992,16 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>425</v>
       </c>
@@ -16422,21 +16009,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>374</v>
       </c>
       <c r="E3" s="56"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>116</v>
       </c>
@@ -16450,7 +16037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>1</v>
       </c>
@@ -16464,7 +16051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>124</v>
       </c>
@@ -16474,7 +16061,7 @@
       <c r="C7" s="154"/>
       <c r="D7" s="155"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>1</v>
       </c>
@@ -16482,7 +16069,7 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>2</v>
       </c>
@@ -16490,7 +16077,7 @@
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>3</v>
       </c>
@@ -16498,7 +16085,7 @@
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>4</v>
       </c>
@@ -16506,7 +16093,7 @@
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>5</v>
       </c>
@@ -16514,7 +16101,7 @@
       <c r="C12" s="61"/>
       <c r="D12" s="62"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>62</v>
       </c>
@@ -16536,27 +16123,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="7" width="25.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="25.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -16564,25 +16151,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="s">
         <v>17</v>
       </c>
@@ -16610,7 +16197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="135"/>
       <c r="B10" s="135"/>
       <c r="C10" s="21" t="s">
@@ -16628,7 +16215,7 @@
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>1</v>
       </c>
@@ -16660,10 +16247,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -16674,10 +16259,8 @@
       <c r="I12" s="24"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -16688,9 +16271,9 @@
       <c r="I13" s="24"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>3</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="117" t="s">
+        <v>428</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -16701,118 +16284,6 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>4</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>5</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>6</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>7</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>8</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>9</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>10</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16826,40 +16297,16 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:E19">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:E20">
-    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E21">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E22">
-    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:E18">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:E17">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:E16">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:E15">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E22" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$B$6:$B$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -16874,27 +16321,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="7" width="25.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="7" width="25.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -16902,25 +16349,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135" t="s">
         <v>17</v>
       </c>
@@ -16948,7 +16395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="135"/>
       <c r="B10" s="135"/>
       <c r="C10" s="21" t="s">
@@ -16966,7 +16413,7 @@
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>1</v>
       </c>
@@ -16998,10 +16445,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -17012,10 +16457,8 @@
       <c r="I12" s="24"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -17026,9 +16469,9 @@
       <c r="I13" s="24"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>3</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="117" t="s">
+        <v>428</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -17039,118 +16482,6 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>4</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>5</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>6</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>7</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>8</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>9</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>10</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -17164,40 +16495,16 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:E20">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E21">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E22">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:E19">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:E18">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:E17">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:E16">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:E15">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E22" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E14" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$B$6:$B$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -17219,16 +16526,16 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="3" customWidth="1"/>
-    <col min="3" max="8" width="10.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="10.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -17236,7 +16543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="128" t="s">
         <v>29</v>
       </c>
@@ -17256,7 +16563,7 @@
       </c>
       <c r="H3" s="132"/>
     </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="129"/>
       <c r="B4" s="129"/>
       <c r="C4" s="27" t="s">
@@ -17278,7 +16585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -17304,7 +16611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>38</v>
       </c>
@@ -17316,7 +16623,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>39</v>
       </c>
@@ -17328,7 +16635,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>40</v>
       </c>
@@ -17340,7 +16647,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>41</v>
       </c>
@@ -17352,7 +16659,7 @@
       <c r="G9" s="32"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>12</v>
       </c>
@@ -17364,7 +16671,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="136" t="s">
         <v>42</v>
       </c>
@@ -17417,16 +16724,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="101" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="101" customWidth="1"/>
-    <col min="3" max="11" width="9.88671875" style="101" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="101"/>
+    <col min="1" max="1" width="5.85546875" style="101" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="101" customWidth="1"/>
+    <col min="3" max="11" width="9.85546875" style="101" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="99" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>298</v>
       </c>
@@ -17434,12 +16741,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="128" t="s">
         <v>17</v>
       </c>
@@ -17462,7 +16769,7 @@
       <c r="J4" s="141"/>
       <c r="K4" s="142"/>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="129"/>
       <c r="B5" s="139"/>
       <c r="C5" s="102" t="s">
@@ -17493,7 +16800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="103">
         <v>1</v>
       </c>
@@ -17528,7 +16835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -17543,7 +16850,7 @@
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -17558,7 +16865,7 @@
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>3</v>
       </c>
@@ -17573,7 +16880,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -17588,7 +16895,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>5</v>
       </c>
@@ -17603,7 +16910,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>6</v>
       </c>
@@ -17618,7 +16925,7 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>7</v>
       </c>
@@ -17633,7 +16940,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>8</v>
       </c>
@@ -17648,7 +16955,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>9</v>
       </c>
@@ -17663,7 +16970,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>10</v>
       </c>
@@ -17678,7 +16985,7 @@
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>89</v>
       </c>
@@ -17719,24 +17026,24 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -17744,7 +17051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
@@ -17752,8 +17059,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
@@ -17761,28 +17068,28 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H8" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="128" t="s">
         <v>17</v>
       </c>
@@ -17821,7 +17128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="129"/>
       <c r="B12" s="129"/>
       <c r="C12" s="129"/>
@@ -17840,7 +17147,7 @@
       <c r="L12" s="129"/>
       <c r="M12" s="129"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>1</v>
       </c>
@@ -17879,7 +17186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>1</v>
       </c>
@@ -17896,7 +17203,7 @@
       <c r="L14" s="25"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2</v>
       </c>
@@ -17913,7 +17220,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>3</v>
       </c>
@@ -17930,7 +17237,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>4</v>
       </c>
@@ -17947,7 +17254,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>5</v>
       </c>
@@ -17964,7 +17271,7 @@
       <c r="L18" s="25"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>6</v>
       </c>
@@ -17981,7 +17288,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>7</v>
       </c>
@@ -17998,7 +17305,7 @@
       <c r="L20" s="25"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>8</v>
       </c>
@@ -18015,7 +17322,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>9</v>
       </c>
@@ -18032,7 +17339,7 @@
       <c r="L22" s="25"/>
       <c r="M22" s="35"/>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>10</v>
       </c>
@@ -18049,7 +17356,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>11</v>
       </c>
@@ -18066,7 +17373,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>12</v>
       </c>
@@ -18083,7 +17390,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="35"/>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>13</v>
       </c>
@@ -18100,7 +17407,7 @@
       <c r="L26" s="25"/>
       <c r="M26" s="35"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>14</v>
       </c>
@@ -18117,7 +17424,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>15</v>
       </c>
@@ -18134,7 +17441,7 @@
       <c r="L28" s="25"/>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>16</v>
       </c>
@@ -18151,7 +17458,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>17</v>
       </c>
@@ -18168,7 +17475,7 @@
       <c r="L30" s="25"/>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>18</v>
       </c>
@@ -18185,7 +17492,7 @@
       <c r="L31" s="25"/>
       <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>19</v>
       </c>
@@ -18202,7 +17509,7 @@
       <c r="L32" s="25"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>20</v>
       </c>
@@ -18219,7 +17526,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="35"/>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>62</v>
       </c>

--- a/common/required/kriteria9/aps/template/penilaian.xlsx
+++ b/common/required/kriteria9/aps/template/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\php\kriteria\common\required\kriteria9\aps\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18688550-2563-4272-B263-9853139004DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D56571-087B-4819-9FFE-C88B17D3BDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="839" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="68" r:id="rId1"/>
@@ -89,7 +89,15 @@
     <definedName name="diploma" localSheetId="38">#REF!</definedName>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -246,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="431">
   <si>
     <t xml:space="preserve">:   </t>
   </si>
@@ -1856,17 +1864,23 @@
   <si>
     <t>Σ</t>
   </si>
+  <si>
+    <t>Rata-Rata DT</t>
+  </si>
+  <si>
+    <t>Rata-rata DTPS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0E+0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0E+0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2166,6 +2180,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -2412,14 +2442,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2659,7 +2689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2702,7 +2732,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2766,36 +2796,39 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2912,6 +2945,39 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2922,7 +2988,27 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3512,62 +3598,62 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3608,23 +3694,23 @@
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -3666,13 +3752,13 @@
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3954,9 +4040,9 @@
       <c r="G17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
       <c r="K17" s="11" t="str">
         <f>IF(H17="Minimum","Studi telah mendapt ijin pembukaan program studi baru. Pengajuan usulan akreditasi pertama","")</f>
         <v/>
@@ -4245,13 +4331,13 @@
       <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -4303,9 +4389,9 @@
       <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -4361,23 +4447,23 @@
       <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="125"/>
-      <c r="U31" s="125"/>
-      <c r="V31" s="125"/>
-      <c r="W31" s="125"/>
-      <c r="X31" s="125"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="123"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="123"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4419,23 +4505,23 @@
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="126"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
+      <c r="W33" s="126"/>
+      <c r="X33" s="126"/>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,23 +4733,23 @@
       <c r="G41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="119"/>
-      <c r="S41" s="119"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="119"/>
-      <c r="V41" s="119"/>
-      <c r="W41" s="119"/>
-      <c r="X41" s="119"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="124"/>
+      <c r="P41" s="124"/>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="124"/>
+      <c r="S41" s="124"/>
+      <c r="T41" s="124"/>
+      <c r="U41" s="124"/>
+      <c r="V41" s="124"/>
+      <c r="W41" s="124"/>
+      <c r="X41" s="124"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4701,23 +4787,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="119"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="119"/>
-      <c r="V43" s="119"/>
-      <c r="W43" s="119"/>
-      <c r="X43" s="119"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="124"/>
+      <c r="O43" s="124"/>
+      <c r="P43" s="124"/>
+      <c r="Q43" s="124"/>
+      <c r="R43" s="124"/>
+      <c r="S43" s="124"/>
+      <c r="T43" s="124"/>
+      <c r="U43" s="124"/>
+      <c r="V43" s="124"/>
+      <c r="W43" s="124"/>
+      <c r="X43" s="124"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4755,12 +4841,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="121" t="s">
+      <c r="H45" s="119" t="s">
         <v>397</v>
       </c>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -4770,10 +4856,10 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="122" t="s">
+      <c r="U45" s="120" t="s">
         <v>398</v>
       </c>
-      <c r="V45" s="122"/>
+      <c r="V45" s="120"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
@@ -4817,13 +4903,13 @@
       <c r="G47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4875,16 +4961,16 @@
       <c r="G49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -4933,15 +5019,15 @@
       <c r="G51" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="124"/>
+      <c r="O51" s="124"/>
+      <c r="P51" s="124"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -5116,12 +5202,12 @@
       <c r="R57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S57" s="119"/>
-      <c r="T57" s="119"/>
-      <c r="U57" s="119"/>
-      <c r="V57" s="119"/>
-      <c r="W57" s="119"/>
-      <c r="X57" s="119"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+      <c r="U57" s="124"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
+      <c r="X57" s="124"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,9 +5262,9 @@
       <c r="R59" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S59" s="120"/>
-      <c r="T59" s="120"/>
-      <c r="U59" s="120"/>
+      <c r="S59" s="128"/>
+      <c r="T59" s="128"/>
+      <c r="U59" s="128"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -5192,10 +5278,10 @@
       <c r="C60" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="D60" s="118">
+      <c r="D60" s="127">
         <v>20200131</v>
       </c>
-      <c r="E60" s="118"/>
+      <c r="E60" s="127"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5252,6 +5338,12 @@
     <protectedRange sqref="H5:I5 H31:I31" name="Nama PT"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H51:P51"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="S59:U59"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="A2:Y2"/>
@@ -5265,12 +5357,6 @@
     <mergeCell ref="H33:X33"/>
     <mergeCell ref="H41:X41"/>
     <mergeCell ref="H43:X43"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H51:P51"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="S59:U59"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:J17" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5291,13 +5377,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5325,46 +5411,46 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146" t="s">
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147" t="s">
         <v>427</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="39" t="s">
         <v>40</v>
       </c>
@@ -5389,7 +5475,7 @@
       <c r="J5" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="146"/>
+      <c r="K5" s="147"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -5434,12 +5520,21 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="81"/>
+      <c r="F7" s="81" t="e">
+        <f>AVERAGE(C7:E7)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="81" t="e">
+        <f>AVERAGE(G7:I7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="81" t="e">
+        <f>AVERAGE(F7,J7)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
@@ -5449,72 +5544,21 @@
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="81"/>
+      <c r="F8" s="81" t="e">
+        <f t="shared" ref="F8" si="0">AVERAGE(C8:E8)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>3</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>4</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>5</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="J8" s="81" t="e">
+        <f t="shared" ref="J8" si="1">AVERAGE(G8:I8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="81" t="e">
+        <f t="shared" ref="K8" si="2">AVERAGE(F8,J8)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5534,14 +5578,14 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5577,55 +5621,55 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="130" t="s">
+      <c r="D7" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="128" t="s">
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="128" t="s">
+      <c r="K7" s="129" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="130" t="s">
+      <c r="A8" s="148"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="128" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="128" t="s">
+      <c r="H8" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
     </row>
     <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="27" t="s">
         <v>71</v>
       </c>
@@ -5635,11 +5679,11 @@
       <c r="F9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
@@ -5707,305 +5751,64 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>3</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="A13" s="170" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="80" t="e">
+        <f>AVERAGE(J11:J12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="80" t="e">
+        <f>AVERAGE(K11:K12)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>4</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>5</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>6</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>7</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>8</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>9</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>10</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>11</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>12</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>13</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>14</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>15</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>16</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>17</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>18</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
-        <v>19</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
-        <v>20</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="A14" s="170" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="80" t="e">
+        <f>AVERAGEIFS(J11:J12,C11:C12,"V")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="80" t="e">
+        <f>AVERAGEIFS(K11:K12,C11:C12,"V")</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C31" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C12" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$B$4:$B$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6018,10 +5821,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
@@ -6174,65 +5977,35 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>3</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>4</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>5</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="171" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="173">
+        <f>COUNTIF(B13:B14,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172">
+        <f>COUNT(G13:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="172">
+        <f>COUNT(H13:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172">
+        <f>COUNT(J13:J14)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F18" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F15" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>$F$4:$F$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -6245,14 +6018,14 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,8 +6129,8 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>2</v>
+      <c r="A7" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="25"/>
@@ -6367,58 +6140,6 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6431,14 +6152,14 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6486,32 +6207,32 @@
       <c r="A6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="131"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="128" t="s">
+      <c r="F7" s="132"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="129" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="27" t="s">
         <v>88</v>
       </c>
@@ -6521,7 +6242,7 @@
       <c r="G8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="129"/>
+      <c r="H8" s="130"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -6574,65 +6295,39 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
-        <v>3</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="A12" s="174" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="25">
+        <f>COUNTIF(E10:E11,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" ref="F12:G12" si="0">COUNTIF(F10:F11,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
-        <v>4</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
-        <v>5</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -6641,7 +6336,7 @@
     <mergeCell ref="E7:G7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:G15" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:G11" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>$B$4:$B$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6685,24 +6380,24 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="48" t="s">
         <v>40</v>
       </c>
@@ -6712,7 +6407,7 @@
       <c r="E4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="149"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -6780,10 +6475,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="151"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="33">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -6849,24 +6544,24 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="48" t="s">
         <v>40</v>
       </c>
@@ -6876,7 +6571,7 @@
       <c r="E4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="149"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -6944,10 +6639,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="151"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="33">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -7016,24 +6711,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="82" t="s">
         <v>40</v>
       </c>
@@ -7043,7 +6738,7 @@
       <c r="E5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -7216,10 +6911,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="152"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="83">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -7288,24 +6983,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="48" t="s">
         <v>40</v>
       </c>
@@ -7315,7 +7010,7 @@
       <c r="E5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -7488,10 +7183,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="152"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="33">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -7526,14 +7221,14 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7607,38 +7302,23 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="25"/>
+      <c r="A8" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="138"/>
+      <c r="C8" s="177">
+        <f>COUNTIF(C6:C7,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="178">
+        <f>SUM(D6:D7)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
@@ -9130,14 +8810,14 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9227,46 +8907,22 @@
       <c r="F7" s="115"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="169"/>
+      <c r="C8" s="61">
+        <f>COUNTIF(C6:C7,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="115"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="115"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="115"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="115"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
@@ -9277,14 +8933,14 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9345,11 +9001,11 @@
       <c r="A6" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9367,41 +9023,21 @@
       <c r="C8" s="61"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>3</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="61">
+        <f>COUNTIF(B7:B8,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>5</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
@@ -9413,14 +9049,14 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9480,11 +9116,11 @@
       <c r="A6" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9503,49 +9139,29 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>3</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="61">
+        <f>COUNTIF(B7:B8,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>5</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="A11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
@@ -9557,14 +9173,14 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9624,11 +9240,11 @@
       <c r="A6" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9647,49 +9263,29 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>3</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="61">
+        <f>COUNTIF(B7:B8,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>5</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="A11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
@@ -9701,14 +9297,14 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9768,11 +9364,11 @@
       <c r="A6" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="156"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9791,40 +9387,20 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>3</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="61">
+        <f>COUNTIF(B7:B8,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>5</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
@@ -9869,28 +9445,28 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="130" t="s">
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="64" t="s">
         <v>40</v>
       </c>
@@ -10067,10 +9643,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="156"/>
+      <c r="B12" s="157"/>
       <c r="C12" s="107">
         <f>SUM(C6:C11)</f>
         <v>0</v>
@@ -10149,10 +9725,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="156"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="107">
         <f>SUM(C13:C14)</f>
         <v>0</v>
@@ -10253,10 +9829,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="156"/>
+      <c r="B19" s="157"/>
       <c r="C19" s="107">
         <f>SUM(C16:C18)</f>
         <v>0</v>
@@ -10405,48 +9981,48 @@
       <c r="P5" s="20"/>
     </row>
     <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="159" t="s">
         <v>367</v>
       </c>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="128" t="s">
+      <c r="G7" s="160"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="158" t="s">
+      <c r="J7" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="128" t="s">
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="O7" s="128" t="s">
+      <c r="O7" s="129" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="27" t="s">
         <v>153</v>
       </c>
@@ -10456,7 +10032,7 @@
       <c r="H8" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="129"/>
+      <c r="I8" s="130"/>
       <c r="J8" s="27" t="s">
         <v>156</v>
       </c>
@@ -10469,8 +10045,8 @@
       <c r="M8" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -11065,25 +10641,25 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="149" t="s">
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="150" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="72" t="s">
         <v>168</v>
       </c>
@@ -11096,7 +10672,7 @@
       <c r="F4" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="150"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -11187,10 +10763,10 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="165"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="73">
         <f>SUM(C6:C10)</f>
         <v>0</v>
@@ -11600,28 +11176,28 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="128" t="s">
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="129" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="84" t="s">
         <v>288</v>
       </c>
@@ -11631,7 +11207,7 @@
       <c r="F15" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="G15" s="129"/>
+      <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
@@ -12198,25 +11774,25 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="158" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
       <c r="D4" s="27" t="s">
         <v>192</v>
       </c>
@@ -12355,28 +11931,28 @@
       <c r="A6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="157" t="s">
+      <c r="D7" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157" t="s">
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="27" t="s">
         <v>198</v>
       </c>
@@ -12386,7 +11962,7 @@
       <c r="F8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="157"/>
+      <c r="G8" s="158"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -12585,28 +12161,28 @@
       <c r="A7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="157" t="s">
+      <c r="D8" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157" t="s">
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="157"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="27" t="s">
         <v>198</v>
       </c>
@@ -12616,7 +12192,7 @@
       <c r="F9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="157"/>
+      <c r="G9" s="158"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
@@ -12789,29 +12365,29 @@
       <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="158" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="158" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="158" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="27" t="s">
         <v>209</v>
       </c>
@@ -12827,8 +12403,8 @@
       <c r="G5" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -12929,31 +12505,31 @@
       <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="158" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157" t="s">
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="K12" s="157" t="s">
+      <c r="K12" s="158" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="157"/>
-      <c r="B13" s="157"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="27" t="s">
         <v>216</v>
       </c>
@@ -12975,8 +12551,8 @@
       <c r="I13" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
@@ -13108,22 +12684,22 @@
       <c r="K20" s="77"/>
     </row>
     <row r="21" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="149" t="s">
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="150" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="157" t="s">
+      <c r="H21" s="158" t="s">
         <v>208</v>
       </c>
       <c r="I21" s="77"/>
@@ -13131,8 +12707,8 @@
       <c r="K21" s="77"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="148"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="27" t="s">
         <v>219</v>
       </c>
@@ -13145,8 +12721,8 @@
       <c r="F22" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="150"/>
-      <c r="H22" s="157"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="158"/>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
       <c r="K22" s="77"/>
@@ -13258,31 +12834,31 @@
       <c r="K28" s="77"/>
     </row>
     <row r="29" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157" t="s">
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="K29" s="157" t="s">
+      <c r="K29" s="158" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="27" t="s">
         <v>216</v>
       </c>
@@ -13304,8 +12880,8 @@
       <c r="I30" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="158"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
@@ -13427,11 +13003,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:A22"/>
@@ -13442,11 +13018,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -13500,29 +13076,29 @@
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="158" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="158" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="158" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="27" t="s">
         <v>230</v>
       </c>
@@ -13636,25 +13212,25 @@
       <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="157" t="s">
+      <c r="D13" s="158" t="s">
         <v>370</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="157"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="157"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="27" t="s">
         <v>234</v>
       </c>
@@ -13749,25 +13325,25 @@
       <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="158" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="157" t="s">
+      <c r="D22" s="158" t="s">
         <v>370</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
     </row>
     <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="27" t="s">
         <v>230</v>
       </c>
@@ -13921,25 +13497,25 @@
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="158" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="158" t="s">
         <v>371</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="27" t="s">
         <v>240</v>
       </c>
@@ -14078,25 +13654,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="158" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="158" t="s">
         <v>369</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="27" t="s">
         <v>244</v>
       </c>
@@ -14255,20 +13831,20 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="158" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -14330,12 +13906,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14364,49 +13940,49 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="39.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="47.25" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135" t="s">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="133" t="s">
+      <c r="J9" s="134" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
@@ -14416,11 +13992,11 @@
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="134"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -14467,9 +14043,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
-        <v>428</v>
-      </c>
+      <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -14479,6 +14053,32 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="117" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" s="24">
+        <f>COUNTIF(B12:B13,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <f>COUNTIF(C12:C13,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <f>COUNTIF(D12:D13,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <f>COUNTIF(E12:E13,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14491,14 +14091,14 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+  <conditionalFormatting sqref="C12:E13">
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+  <conditionalFormatting sqref="C14:E14">
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E13" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C13 D12:D13 E12:E13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$B$6:$B$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -14550,25 +14150,25 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="158" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="27" t="s">
         <v>168</v>
       </c>
@@ -14581,7 +14181,7 @@
       <c r="F5" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="157"/>
+      <c r="G5" s="158"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -14698,10 +14298,10 @@
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="166"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
       <c r="E14" s="80"/>
@@ -14761,24 +14361,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="82" t="s">
         <v>40</v>
       </c>
@@ -14788,7 +14388,7 @@
       <c r="E5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -14961,10 +14561,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="152"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="83">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -15032,24 +14632,24 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148" t="s">
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="48" t="s">
         <v>40</v>
       </c>
@@ -15059,7 +14659,7 @@
       <c r="E5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -15232,10 +14832,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="152"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="33">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -15613,11 +15213,11 @@
       <c r="A7" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -15755,11 +15355,11 @@
       <c r="A7" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -15905,11 +15505,11 @@
       <c r="A7" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -16055,11 +15655,11 @@
       <c r="A7" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -16128,7 +15728,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16170,36 +15770,36 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135" t="s">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="135" t="s">
+      <c r="J9" s="136" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
@@ -16209,11 +15809,11 @@
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -16275,10 +15875,22 @@
       <c r="A14" s="117" t="s">
         <v>428</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="24">
+        <f>COUNTIF(B12:B13,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <f>COUNTIF(C12:C13,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <f>COUNTIF(D12:D13,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <f>COUNTIF(E12:E13,"V")</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -16297,16 +15909,16 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E14" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E13" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$B$6:$B$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -16326,7 +15938,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16368,36 +15980,36 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135" t="s">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="135" t="s">
+      <c r="J9" s="136" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
@@ -16407,11 +16019,11 @@
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -16473,10 +16085,22 @@
       <c r="A14" s="117" t="s">
         <v>428</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="24">
+        <f>COUNTIF(B12:B13,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <f>COUNTIF(C12:C13,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <f>COUNTIF(D12:D13,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <f>COUNTIF(E12:E13,"V")</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -16495,16 +16119,16 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E14" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E13" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$B$6:$B$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -16523,7 +16147,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16544,28 +16168,28 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="130" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="130" t="s">
+      <c r="F3" s="133"/>
+      <c r="G3" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="133"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="27" t="s">
         <v>34</v>
       </c>
@@ -16672,10 +16296,10 @@
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="137"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="33">
         <f t="shared" ref="C11:F11" si="0">SUM(C6:C10)</f>
         <v>0</v>
@@ -16692,11 +16316,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="136">
+      <c r="G11" s="137">
         <f>SUM(G10:H10)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="137"/>
+      <c r="H11" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16718,10 +16342,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16747,31 +16371,31 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="140" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="141" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="140" t="s">
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="141" t="s">
         <v>356</v>
       </c>
-      <c r="J4" s="141"/>
-      <c r="K4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="102" t="s">
         <v>40</v>
       </c>
@@ -16865,143 +16489,51 @@
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>3</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>4</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>5</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>6</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>7</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>8</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>9</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>10</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+    <row r="9" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="25">
+        <f>COUNT(C7:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" ref="D9:K9" si="0">COUNT(D7:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:E4"/>
@@ -17012,18 +16544,19 @@
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="13" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17090,62 +16623,62 @@
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="129" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="145"/>
-      <c r="F11" s="128" t="s">
+      <c r="E11" s="146"/>
+      <c r="F11" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="128" t="s">
+      <c r="I11" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="128" t="s">
+      <c r="J11" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="128" t="s">
+      <c r="L11" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="128" t="s">
+      <c r="M11" s="129" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="27" t="s">
         <v>265</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
@@ -17157,10 +16690,10 @@
       <c r="C13" s="29">
         <v>3</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="144">
         <v>4</v>
       </c>
-      <c r="E13" s="144"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="29">
         <v>5</v>
       </c>
@@ -17220,336 +16753,40 @@
       <c r="L15" s="25"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>3</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="25">
+        <f>COUNTIF(B14:B15,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="36"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="25">
+        <f>COUNTIF(G14:G15,"V")</f>
+        <v>0</v>
+      </c>
       <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="25">
+        <f>COUNTIF(I14:I15,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <f>COUNTIF(J14:J15,"*")</f>
+        <v>0</v>
+      </c>
       <c r="K16" s="35"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="25">
+        <f>COUNTIF(L14:L15,"V")</f>
+        <v>0</v>
+      </c>
       <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>4</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>5</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>6</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>7</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>8</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>9</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="35"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>10</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>11</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>12</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>13</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>14</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>15</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
-        <v>16</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
-        <v>17</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="35"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
-        <v>18</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
-        <v>19</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="35"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
-        <v>20</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="35"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="F11:F12"/>
@@ -17558,12 +16795,17 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14:L34 G14:G34" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G15 L14:L15" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$G$4:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H34" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H16" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>$H$4:$H$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/common/required/kriteria9/aps/template/penilaian.xlsx
+++ b/common/required/kriteria9/aps/template/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\php\kriteria\common\required\kriteria9\aps\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D56571-087B-4819-9FFE-C88B17D3BDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF9272-A27B-4A9B-8061-A6DE369925CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="839" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="839" firstSheet="28" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="68" r:id="rId1"/>
@@ -89,15 +89,7 @@
     <definedName name="diploma" localSheetId="38">#REF!</definedName>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -254,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="430">
   <si>
     <t xml:space="preserve">:   </t>
   </si>
@@ -549,9 +541,6 @@
   </si>
   <si>
     <t>Wilayah</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Tabel 3.b.2) Penelitian DTPS</t>
@@ -1876,11 +1865,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0E+0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0E+0"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,6 +2185,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -2442,14 +2438,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2689,7 +2685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,7 +2728,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2799,6 +2795,30 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2814,21 +2834,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2886,9 +2897,21 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2904,6 +2927,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2946,37 +2975,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2988,27 +2996,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3598,62 +3586,62 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3694,23 +3682,23 @@
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,7 +3732,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
@@ -3752,13 +3740,13 @@
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3807,7 +3795,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="112" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I9" s="112"/>
       <c r="J9" s="10"/>
@@ -3836,7 +3824,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="112" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I10" s="112"/>
       <c r="J10" s="10"/>
@@ -3865,7 +3853,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="112" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I11" s="112"/>
       <c r="J11" s="10"/>
@@ -3894,7 +3882,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="112" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I12" s="112"/>
       <c r="J12" s="10"/>
@@ -3923,7 +3911,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I13" s="112"/>
       <c r="J13" s="10"/>
@@ -3952,7 +3940,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="112" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I14" s="112"/>
       <c r="J14" s="10"/>
@@ -3981,7 +3969,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I15" s="112"/>
       <c r="J15" s="10"/>
@@ -4032,7 +4020,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
@@ -4040,9 +4028,9 @@
       <c r="G17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
       <c r="K17" s="11" t="str">
         <f>IF(H17="Minimum","Studi telah mendapt ijin pembukaan program studi baru. Pengajuan usulan akreditasi pertama","")</f>
         <v/>
@@ -4098,7 +4086,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -4156,7 +4144,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -4214,7 +4202,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -4272,7 +4260,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="112" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -4323,7 +4311,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="C27" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
@@ -4331,13 +4319,13 @@
       <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -4381,7 +4369,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="9"/>
       <c r="C29" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="9"/>
@@ -4389,9 +4377,9 @@
       <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -4447,23 +4435,23 @@
       <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4505,23 +4493,23 @@
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="126"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
+      <c r="U33" s="133"/>
+      <c r="V33" s="133"/>
+      <c r="W33" s="133"/>
+      <c r="X33" s="133"/>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4587,7 +4575,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="112" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I36" s="112"/>
       <c r="J36" s="10"/>
@@ -4616,7 +4604,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="112" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I37" s="112"/>
       <c r="J37" s="10"/>
@@ -4645,7 +4633,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I38" s="112"/>
       <c r="J38" s="10"/>
@@ -4674,7 +4662,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="112" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I39" s="112"/>
       <c r="J39" s="10"/>
@@ -4725,7 +4713,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="9"/>
       <c r="C41" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="9"/>
@@ -4733,23 +4721,23 @@
       <c r="G41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="124"/>
-      <c r="V41" s="124"/>
-      <c r="W41" s="124"/>
-      <c r="X41" s="124"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="125"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,23 +4775,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="124"/>
-      <c r="S43" s="124"/>
-      <c r="T43" s="124"/>
-      <c r="U43" s="124"/>
-      <c r="V43" s="124"/>
-      <c r="W43" s="124"/>
-      <c r="X43" s="124"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4841,12 +4829,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="119" t="s">
-        <v>397</v>
-      </c>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
+      <c r="H45" s="127" t="s">
+        <v>396</v>
+      </c>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -4856,10 +4844,10 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="120" t="s">
-        <v>398</v>
-      </c>
-      <c r="V45" s="120"/>
+      <c r="U45" s="128" t="s">
+        <v>397</v>
+      </c>
+      <c r="V45" s="128"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
@@ -4895,7 +4883,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="9"/>
       <c r="C47" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
@@ -4903,13 +4891,13 @@
       <c r="G47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4953,7 +4941,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="9"/>
       <c r="C49" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="9"/>
@@ -4961,16 +4949,16 @@
       <c r="G49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="125"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -5011,7 +4999,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="9"/>
       <c r="C51" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
@@ -5019,15 +5007,15 @@
       <c r="G51" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="124"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
+      <c r="M51" s="125"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="125"/>
+      <c r="P51" s="125"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -5069,7 +5057,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="9"/>
       <c r="C53" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="9"/>
@@ -5195,19 +5183,19 @@
       <c r="M57" s="114"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S57" s="124"/>
-      <c r="T57" s="124"/>
-      <c r="U57" s="124"/>
-      <c r="V57" s="124"/>
-      <c r="W57" s="124"/>
-      <c r="X57" s="124"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="125"/>
+      <c r="U57" s="125"/>
+      <c r="V57" s="125"/>
+      <c r="W57" s="125"/>
+      <c r="X57" s="125"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5240,7 +5228,7 @@
     <row r="59" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="2"/>
@@ -5255,16 +5243,16 @@
       <c r="M59" s="114"/>
       <c r="N59" s="2"/>
       <c r="O59" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S59" s="128"/>
-      <c r="T59" s="128"/>
-      <c r="U59" s="128"/>
+      <c r="S59" s="126"/>
+      <c r="T59" s="126"/>
+      <c r="U59" s="126"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -5276,12 +5264,12 @@
         <v>1</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="D60" s="127">
+        <v>405</v>
+      </c>
+      <c r="D60" s="124">
         <v>20200131</v>
       </c>
-      <c r="E60" s="127"/>
+      <c r="E60" s="124"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5338,12 +5326,6 @@
     <protectedRange sqref="H5:I5 H31:I31" name="Nama PT"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H51:P51"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="S59:U59"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="A2:Y2"/>
@@ -5357,6 +5339,12 @@
     <mergeCell ref="H33:X33"/>
     <mergeCell ref="H41:X41"/>
     <mergeCell ref="H43:X43"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H51:P51"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="S59:U59"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:J17" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5411,46 +5399,46 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147" t="s">
-        <v>273</v>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147" t="s">
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147" t="s">
-        <v>427</v>
-      </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152" t="s">
+        <v>426</v>
+      </c>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="39" t="s">
         <v>40</v>
       </c>
@@ -5461,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>40</v>
@@ -5473,9 +5461,9 @@
         <v>12</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="147"/>
+        <v>135</v>
+      </c>
+      <c r="K5" s="152"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -5621,55 +5609,55 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="129" t="s">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="129" t="s">
+      <c r="K7" s="134" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="131" t="s">
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="129" t="s">
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="129" t="s">
+      <c r="H8" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="27" t="s">
         <v>71</v>
       </c>
@@ -5679,11 +5667,11 @@
       <c r="F9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
@@ -5751,17 +5739,17 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="170" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
+      <c r="A13" s="153" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
       <c r="J13" s="80" t="e">
         <f>AVERAGE(J11:J12)</f>
         <v>#DIV/0!</v>
@@ -5772,17 +5760,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="170" t="s">
-        <v>430</v>
-      </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
+      <c r="A14" s="153" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
       <c r="J14" s="80" t="e">
         <f>AVERAGEIFS(J11:J12,C11:C12,"V")</f>
         <v>#DIV/0!</v>
@@ -5794,18 +5782,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C12" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -5855,33 +5843,33 @@
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5893,7 +5881,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>47</v>
@@ -5978,27 +5966,27 @@
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="171" t="s">
-        <v>428</v>
-      </c>
-      <c r="B15" s="173">
+      <c r="A15" s="119" t="s">
+        <v>427</v>
+      </c>
+      <c r="B15" s="121">
         <f>COUNTIF(B13:B14,"*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172">
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120">
         <f>COUNT(G13:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="172">
+      <c r="H15" s="120">
         <f>COUNT(H13:H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172">
+      <c r="I15" s="120"/>
+      <c r="J15" s="120">
         <f>COUNT(J13:J14)</f>
         <v>0</v>
       </c>
@@ -6175,7 +6163,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>14</v>
@@ -6207,32 +6195,32 @@
       <c r="A6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="129" t="s">
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="134" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="27" t="s">
         <v>88</v>
       </c>
@@ -6242,7 +6230,7 @@
       <c r="G8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="130"/>
+      <c r="H8" s="135"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
@@ -6295,12 +6283,12 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="25">
         <f>COUNTIF(E10:E11,"V")</f>
         <v>0</v>
@@ -6370,7 +6358,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -6380,24 +6368,24 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="159" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="149" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149" t="s">
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="149"/>
-      <c r="B4" s="151"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="48" t="s">
         <v>40</v>
       </c>
@@ -6407,7 +6395,7 @@
       <c r="E4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="149"/>
+      <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -6434,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -6449,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6464,7 +6452,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -6475,10 +6463,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="152"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="33">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -6534,7 +6522,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -6544,24 +6532,24 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149" t="s">
+      <c r="B3" s="159" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="158" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="149"/>
-      <c r="B4" s="151"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="48" t="s">
         <v>40</v>
       </c>
@@ -6571,7 +6559,7 @@
       <c r="E4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="149"/>
+      <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -6598,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -6613,7 +6601,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6628,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -6639,10 +6627,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="152"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="33">
         <f>SUM(C6:C8)</f>
         <v>0</v>
@@ -6696,7 +6684,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -6707,28 +6695,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="158" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="149" t="s">
+      <c r="C4" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="82" t="s">
         <v>40</v>
       </c>
@@ -6738,7 +6726,7 @@
       <c r="E5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -6765,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6780,7 +6768,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -6795,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -6810,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -6825,7 +6813,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="25"/>
@@ -6840,7 +6828,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="25"/>
@@ -6855,7 +6843,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="25"/>
@@ -6870,7 +6858,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="25"/>
@@ -6885,7 +6873,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="25"/>
@@ -6900,7 +6888,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="25"/>
@@ -6911,10 +6899,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="83">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -6968,7 +6956,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -6979,28 +6967,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="48" t="s">
         <v>40</v>
       </c>
@@ -7010,7 +6998,7 @@
       <c r="E5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -7037,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -7052,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -7067,7 +7055,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -7082,7 +7070,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -7097,7 +7085,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="25"/>
@@ -7112,7 +7100,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="25"/>
@@ -7127,7 +7115,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="25"/>
@@ -7142,7 +7130,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="25"/>
@@ -7157,7 +7145,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="25"/>
@@ -7172,7 +7160,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="25"/>
@@ -7183,10 +7171,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="33">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -7243,7 +7231,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -7254,7 +7242,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -7265,10 +7253,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7302,15 +7290,15 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="177">
+      <c r="B8" s="143"/>
+      <c r="C8" s="122">
         <f>COUNTIF(C6:C7,"*")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="123">
         <f>SUM(D6:D7)</f>
         <v>0</v>
       </c>
@@ -7349,57 +7337,57 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="89" t="s">
-        <v>293</v>
-      </c>
       <c r="E3" s="98" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="98" t="s">
         <v>378</v>
       </c>
-      <c r="F3" s="98" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" s="98" t="s">
+      <c r="H3" s="98" t="s">
         <v>379</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="I3" s="98" t="s">
         <v>380</v>
-      </c>
-      <c r="I3" s="98" t="s">
-        <v>381</v>
       </c>
       <c r="J3" s="98" t="s">
         <v>57</v>
       </c>
       <c r="K3" s="98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M3" s="110" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="91" t="s">
-        <v>295</v>
-      </c>
       <c r="M4" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7407,35 +7395,35 @@
         <v>1</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G5" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H5" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I5" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K5" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M5" s="104"/>
       <c r="N5" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7443,31 +7431,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E6" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H6" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I6" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J6" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K6" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7475,31 +7463,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E7" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G7" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H7" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I7" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J7" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K7" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7507,31 +7495,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>297</v>
-      </c>
       <c r="E8" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H8" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I8" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J8" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K8" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7539,29 +7527,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="93" t="s">
         <v>298</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>299</v>
       </c>
       <c r="E9" s="104"/>
       <c r="F9" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G9" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H9" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I9" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J9" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K9" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7572,28 +7560,28 @@
         <v>45</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G10" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H10" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I10" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J10" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K10" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7604,28 +7592,28 @@
         <v>59</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F11" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I11" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J11" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K11" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7636,28 +7624,28 @@
         <v>63</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H12" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I12" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J12" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K12" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7668,28 +7656,28 @@
         <v>74</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E13" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G13" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H13" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I13" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K13" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7697,17 +7685,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="92" t="s">
-        <v>305</v>
-      </c>
       <c r="E14" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F14" s="104"/>
       <c r="G14" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
@@ -7722,28 +7710,28 @@
         <v>84</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F15" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H15" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I15" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J15" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K15" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7751,31 +7739,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E16" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F16" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G16" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H16" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I16" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J16" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K16" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7783,31 +7771,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E17" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G17" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H17" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I17" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J17" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K17" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7815,22 +7803,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G18" s="104"/>
       <c r="H18" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I18" s="104"/>
       <c r="J18" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K18" s="104"/>
     </row>
@@ -7839,25 +7827,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E19" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F19" s="104"/>
       <c r="G19" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H19" s="104"/>
       <c r="I19" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J19" s="104"/>
       <c r="K19" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7865,29 +7853,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G20" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H20" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I20" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J20" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K20" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7895,25 +7883,25 @@
         <v>17</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E21" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F21" s="104"/>
       <c r="G21" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H21" s="104"/>
       <c r="I21" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J21" s="104"/>
       <c r="K21" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7921,31 +7909,31 @@
         <v>18</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E22" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G22" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H22" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I22" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J22" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K22" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7953,31 +7941,31 @@
         <v>19</v>
       </c>
       <c r="B23" s="94" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E23" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F23" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G23" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H23" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I23" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J23" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K23" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7985,31 +7973,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="94" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E24" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G24" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H24" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I24" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J24" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K24" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8017,31 +8005,31 @@
         <v>21</v>
       </c>
       <c r="B25" s="94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E25" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G25" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H25" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I25" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J25" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K25" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8049,31 +8037,31 @@
         <v>22</v>
       </c>
       <c r="B26" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="97">
         <v>4</v>
       </c>
       <c r="E26" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G26" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H26" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I26" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J26" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K26" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8081,31 +8069,31 @@
         <v>23</v>
       </c>
       <c r="B27" s="94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E27" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G27" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H27" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I27" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J27" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K27" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8113,31 +8101,31 @@
         <v>24</v>
       </c>
       <c r="B28" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="C28" s="92" t="s">
-        <v>313</v>
-      </c>
       <c r="E28" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G28" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H28" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I28" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J28" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K28" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8145,31 +8133,31 @@
         <v>25</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E29" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F29" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G29" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H29" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I29" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J29" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K29" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8177,29 +8165,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G30" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H30" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I30" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J30" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K30" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8207,25 +8195,25 @@
         <v>27</v>
       </c>
       <c r="B31" s="94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="92" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="104"/>
       <c r="G31" s="104"/>
       <c r="H31" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I31" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J31" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K31" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8233,19 +8221,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" s="92">
         <v>7</v>
       </c>
       <c r="E32" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F32" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G32" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H32" s="104"/>
       <c r="I32" s="104"/>
@@ -8257,31 +8245,31 @@
         <v>29</v>
       </c>
       <c r="B33" s="94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E33" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G33" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H33" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I33" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J33" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K33" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8289,31 +8277,31 @@
         <v>30</v>
       </c>
       <c r="B34" s="94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E34" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F34" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G34" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H34" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I34" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J34" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K34" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8321,19 +8309,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E35" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F35" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G35" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H35" s="104"/>
       <c r="I35" s="104"/>
@@ -8345,31 +8333,31 @@
         <v>32</v>
       </c>
       <c r="B36" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="C36" s="92" t="s">
-        <v>321</v>
-      </c>
       <c r="E36" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G36" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H36" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I36" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J36" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K36" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8377,19 +8365,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="92" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E37" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F37" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G37" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="104"/>
@@ -8401,25 +8389,25 @@
         <v>34</v>
       </c>
       <c r="B38" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E38" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F38" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G38" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H38" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I38" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J38" s="104"/>
       <c r="K38" s="104"/>
@@ -8429,19 +8417,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="94" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E39" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F39" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G39" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H39" s="104"/>
       <c r="I39" s="104"/>
@@ -8453,25 +8441,25 @@
         <v>36</v>
       </c>
       <c r="B40" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="96" t="s">
         <v>324</v>
       </c>
-      <c r="C40" s="96" t="s">
-        <v>325</v>
-      </c>
       <c r="E40" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F40" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G40" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H40" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I40" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J40" s="104"/>
       <c r="K40" s="104"/>
@@ -8481,25 +8469,25 @@
         <v>37</v>
       </c>
       <c r="B41" s="94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="95" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E41" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F41" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G41" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H41" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I41" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J41" s="104"/>
       <c r="K41" s="104"/>
@@ -8509,22 +8497,22 @@
         <v>38</v>
       </c>
       <c r="B42" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="92" t="s">
         <v>383</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>384</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G42" s="104"/>
       <c r="H42" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I42" s="104"/>
       <c r="J42" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K42" s="104"/>
     </row>
@@ -8533,23 +8521,23 @@
         <v>39</v>
       </c>
       <c r="B43" s="94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E43" s="104"/>
       <c r="F43" s="104"/>
       <c r="G43" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J43" s="104"/>
       <c r="K43" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8557,25 +8545,25 @@
         <v>40</v>
       </c>
       <c r="B44" s="94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E44" s="104"/>
       <c r="F44" s="104"/>
       <c r="G44" s="104"/>
       <c r="H44" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I44" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J44" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K44" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8583,25 +8571,25 @@
         <v>41</v>
       </c>
       <c r="B45" s="94" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="C45" s="92" t="s">
-        <v>328</v>
-      </c>
       <c r="E45" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F45" s="104"/>
       <c r="G45" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H45" s="104"/>
       <c r="I45" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J45" s="104"/>
       <c r="K45" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8609,29 +8597,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="94" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" s="92" t="s">
         <v>329</v>
-      </c>
-      <c r="C46" s="92" t="s">
-        <v>330</v>
       </c>
       <c r="E46" s="104"/>
       <c r="F46" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G46" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H46" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I46" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J46" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K46" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8639,29 +8627,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="92" t="s">
         <v>331</v>
-      </c>
-      <c r="C47" s="92" t="s">
-        <v>332</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G47" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H47" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I47" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J47" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K47" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8669,29 +8657,29 @@
         <v>44</v>
       </c>
       <c r="B48" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" s="92" t="s">
         <v>333</v>
-      </c>
-      <c r="C48" s="92" t="s">
-        <v>334</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G48" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H48" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I48" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J48" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K48" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8699,29 +8687,29 @@
         <v>45</v>
       </c>
       <c r="B49" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" s="92" t="s">
         <v>335</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>336</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G49" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H49" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I49" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J49" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K49" s="105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -8832,7 +8820,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -8843,7 +8831,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -8854,16 +8842,16 @@
         <v>46</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>131</v>
-      </c>
       <c r="F4" s="87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8907,10 +8895,10 @@
       <c r="F7" s="115"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="169"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="61">
         <f>COUNTIF(C6:C7,"*")</f>
         <v>0</v>
@@ -8954,7 +8942,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -8966,21 +8954,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9001,11 +8989,11 @@
       <c r="A6" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
+      <c r="B6" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9024,10 +9012,10 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="61">
         <f>COUNTIF(B7:B8,"*")</f>
         <v>0</v>
@@ -9070,7 +9058,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -9081,21 +9069,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9114,13 +9102,13 @@
     </row>
     <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="165" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="154" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9139,10 +9127,10 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="61">
         <f>COUNTIF(B7:B8,"*")</f>
         <v>0</v>
@@ -9194,7 +9182,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -9205,21 +9193,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9238,13 +9226,13 @@
     </row>
     <row r="6" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="154" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9263,10 +9251,10 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="61">
         <f>COUNTIF(B7:B8,"*")</f>
         <v>0</v>
@@ -9299,7 +9287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
@@ -9318,7 +9306,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -9329,21 +9317,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9362,13 +9350,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="154" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
@@ -9387,10 +9375,10 @@
       <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="61">
         <f>COUNTIF(B7:B8,"*")</f>
         <v>0</v>
@@ -9415,7 +9403,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
@@ -9435,7 +9423,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>14</v>
@@ -9445,28 +9433,28 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="169" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="131" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="133"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="64" t="s">
         <v>40</v>
       </c>
@@ -9477,7 +9465,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="64" t="s">
         <v>40</v>
@@ -9489,7 +9477,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9529,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
@@ -9543,7 +9531,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -9563,7 +9551,7 @@
     <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
@@ -9583,7 +9571,7 @@
     <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
@@ -9603,7 +9591,7 @@
     <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -9625,7 +9613,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
@@ -9643,10 +9631,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="157"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="107">
         <f>SUM(C6:C11)</f>
         <v>0</v>
@@ -9685,7 +9673,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
@@ -9707,7 +9695,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
@@ -9725,10 +9713,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="157"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="107">
         <f>SUM(C13:C14)</f>
         <v>0</v>
@@ -9767,7 +9755,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
@@ -9789,7 +9777,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
@@ -9811,7 +9799,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -9829,10 +9817,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="157"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="107">
         <f>SUM(C16:C18)</f>
         <v>0</v>
@@ -9886,14 +9874,14 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9909,7 +9897,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9981,72 +9969,72 @@
       <c r="P5" s="20"/>
     </row>
     <row r="7" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="D7" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="E7" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="F7" s="170" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="159" t="s">
-        <v>367</v>
-      </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="129" t="s">
+      <c r="J7" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="159" t="s">
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="129" t="s">
+      <c r="O7" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="O7" s="129" t="s">
+    </row>
+    <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="135"/>
+      <c r="J8" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="130"/>
-      <c r="J8" s="27" t="s">
+      <c r="K8" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="L8" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="M8" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="M8" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -10133,18 +10121,33 @@
       <c r="N11" s="68"/>
       <c r="O11" s="71"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
-        <v>3</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="68"/>
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="69">
+        <f>COUNTIF(E10:E11,"V")</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="69">
+        <f>SUM(F10:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="69">
+        <f>SUM(G10:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="69">
+        <f>SUM(H10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="68">
+        <f>SUM(I10:I11)</f>
+        <v>0</v>
+      </c>
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
       <c r="L12" s="68"/>
@@ -10152,293 +10155,9 @@
       <c r="N12" s="68"/>
       <c r="O12" s="71"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
-        <v>4</v>
-      </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="71"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
-        <v>5</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="71"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
-        <v>6</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="71"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
-        <v>7</v>
-      </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="71"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
-        <v>8</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="71"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
-        <v>9</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="71"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
-        <v>10</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="71"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
-        <v>11</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="71"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
-        <v>12</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="71"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
-        <v>13</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="71"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
-        <v>14</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="71"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
-        <v>15</v>
-      </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="71"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
-        <v>16</v>
-      </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="71"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
-        <v>17</v>
-      </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="71"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="71"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="N7:N8"/>
@@ -10452,7 +10171,7 @@
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:M27 E10:E27" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11 J10:M12" xr:uid="{00000000-0002-0000-1900-000000000000}">
       <formula1>$A$4:$A$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -10466,14 +10185,14 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10490,7 +10209,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -10504,19 +10223,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="72" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="F3" s="48" t="s">
         <v>162</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10558,46 +10277,6 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="115"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>3</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="115"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>4</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="115"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>5</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="115"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>6</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="115"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10612,7 +10291,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
@@ -10631,7 +10310,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>14</v>
@@ -10641,38 +10320,38 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="173" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="150" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="72" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="E4" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F4" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="151"/>
+      <c r="G4" s="160"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -10702,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -10715,7 +10394,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -10728,7 +10407,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -10741,7 +10420,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -10754,7 +10433,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -10763,10 +10442,10 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="166"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="73">
         <f>SUM(C6:C10)</f>
         <v>0</v>
@@ -10802,14 +10481,14 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,7 +10505,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -10837,7 +10516,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10848,16 +10527,16 @@
         <v>46</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="E4" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>181</v>
-      </c>
       <c r="F4" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10900,117 +10579,23 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="25"/>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="25">
+        <f>COUNTIF(E6:E7,"*")</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>7</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>8</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>9</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>10</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>11</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>12</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
   </hyperlinks>
@@ -11037,7 +10622,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11061,7 +10646,7 @@
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -11081,7 +10666,7 @@
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -11092,7 +10677,7 @@
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -11103,7 +10688,7 @@
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -11114,7 +10699,7 @@
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -11125,7 +10710,7 @@
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -11136,7 +10721,7 @@
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -11147,7 +10732,7 @@
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -11158,7 +10743,7 @@
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -11176,38 +10761,38 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="129" t="s">
+      <c r="A14" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="134" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="129" t="s">
+      <c r="D14" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="134" t="s">
         <v>286</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="129" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="84" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="84" t="s">
+      <c r="E15" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="F15" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="F15" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="G15" s="130"/>
+      <c r="G15" s="135"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
@@ -11307,14 +10892,14 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11331,7 +10916,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -11342,7 +10927,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11353,16 +10938,16 @@
         <v>46</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>180</v>
-      </c>
       <c r="E4" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11405,117 +10990,23 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="25"/>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="25">
+        <f>COUNTIF(E6:E7,"*")</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>7</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>8</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>9</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>10</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>11</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>12</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
@@ -11525,14 +11016,14 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11549,7 +11040,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -11560,7 +11051,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11571,16 +11062,16 @@
         <v>46</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>181</v>
-      </c>
       <c r="F4" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11623,121 +11114,28 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="25"/>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="25">
+        <f>COUNTIF(E6:E7,"*")</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>7</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>8</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>9</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>10</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>11</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>12</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11764,7 +11162,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -11774,33 +11172,33 @@
       <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="D3" s="169" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="169"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11875,14 +11273,14 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11899,7 +11297,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>14</v>
@@ -11931,38 +11329,38 @@
       <c r="A6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="D7" s="169" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="158" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="169"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="158"/>
+      <c r="G8" s="169"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -12012,55 +11410,29 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>3</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="179"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="25">
+        <f>COUNTIF(D10:D11,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" ref="E12:F12" si="0">COUNTIF(E10:E11,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G12" s="34"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>4</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="34"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>5</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="34"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="34"/>
-      <c r="I15" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -12074,19 +11446,10 @@
     <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:F13">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:F14">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:F15">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:F15" xr:uid="{00000000-0002-0000-2000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:F11" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>$B$4:$B$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -12099,14 +11462,14 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12123,7 +11486,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>14</v>
@@ -12135,7 +11498,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H3" s="56"/>
     </row>
@@ -12161,38 +11524,38 @@
       <c r="A7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="D8" s="169" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="158" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="169"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="158"/>
+      <c r="G9" s="169"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
@@ -12241,56 +11604,30 @@
       <c r="G12" s="34"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>3</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+    <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="179"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="25">
+        <f>COUNTIF(D11:D12,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" ref="E13:F13" si="0">COUNTIF(E11:E12,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="34"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>4</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="34"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>5</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="34"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="34"/>
-      <c r="I16" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -12304,19 +11641,10 @@
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F13">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:F14">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:F15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:F16">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F16" xr:uid="{00000000-0002-0000-2100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12" xr:uid="{00000000-0002-0000-2100-000000000000}">
       <formula1>$B$5:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -12332,7 +11660,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -12347,7 +11675,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="38"/>
       <c r="L1" s="20" t="s">
@@ -12360,51 +11688,51 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="38"/>
+    </row>
+    <row r="4" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="B4" s="169" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="C4" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158" t="s">
+      <c r="I4" s="169" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="158" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="27" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -12493,7 +11821,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
@@ -12505,54 +11833,54 @@
       <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="169" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="C12" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="158" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158" t="s">
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="169" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="169"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="K12" s="158" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="27" t="s">
+      <c r="D13" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="G13" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>221</v>
-      </c>
       <c r="I13" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
+        <v>212</v>
+      </c>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
@@ -12589,7 +11917,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="31">
         <v>111</v>
@@ -12606,7 +11934,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="31">
         <v>102</v>
@@ -12670,7 +11998,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
@@ -12684,45 +12012,45 @@
       <c r="K20" s="77"/>
     </row>
     <row r="21" spans="1:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="158" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="169" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="C21" s="158" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="149" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="150" t="s">
-        <v>225</v>
-      </c>
-      <c r="H21" s="158" t="s">
-        <v>208</v>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="159" t="s">
+        <v>224</v>
+      </c>
+      <c r="H21" s="169" t="s">
+        <v>207</v>
       </c>
       <c r="I21" s="77"/>
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="149"/>
-      <c r="B22" s="158"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>221</v>
-      </c>
       <c r="F22" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="158"/>
+        <v>212</v>
+      </c>
+      <c r="G22" s="160"/>
+      <c r="H22" s="169"/>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
       <c r="K22" s="77"/>
@@ -12820,7 +12148,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="77"/>
       <c r="C28" s="77"/>
@@ -12834,54 +12162,54 @@
       <c r="K28" s="77"/>
     </row>
     <row r="29" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="169" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="C29" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="K29" s="158" t="s">
-        <v>208</v>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="169" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" s="169" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="E30" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="F30" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="G30" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="H30" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>221</v>
-      </c>
       <c r="I30" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
+        <v>212</v>
+      </c>
+      <c r="J30" s="169"/>
+      <c r="K30" s="169"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
@@ -12918,7 +12246,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="31">
         <v>6</v>
@@ -12935,7 +12263,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="31">
         <v>6</v>
@@ -13003,11 +12331,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:A22"/>
@@ -13018,11 +12346,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -13037,7 +12365,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -13052,7 +12380,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -13069,44 +12397,44 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="E4" s="169" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="158" t="s">
-        <v>370</v>
-      </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>231</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13205,40 +12533,40 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="158" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="158" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
+      <c r="C13" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="169" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
       <c r="D14" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="27" t="s">
         <v>235</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -13318,40 +12646,40 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="158" t="s">
+      <c r="A22" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="158" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="158" t="s">
-        <v>370</v>
-      </c>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
+      <c r="C22" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="169" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
     </row>
     <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
       <c r="D23" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="F23" s="27" t="s">
         <v>231</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -13473,7 +12801,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -13490,40 +12818,40 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="158" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="158" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
+      <c r="C4" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
       <c r="D5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="27" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13639,7 +12967,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -13650,37 +12978,37 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="158" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="158" t="s">
-        <v>369</v>
-      </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
+      <c r="C4" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
     </row>
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
       <c r="D5" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="27" t="s">
         <v>245</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13799,12 +13127,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13816,7 +13144,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>14</v>
@@ -13827,24 +13155,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="158" t="s">
-        <v>248</v>
+      <c r="C4" s="169" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -13936,7 +13264,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
@@ -13953,36 +13281,36 @@
     </row>
     <row r="8" spans="1:11" ht="47.25" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="139" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
@@ -13992,11 +13320,11 @@
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="135"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -14056,7 +13384,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="117" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" s="24">
         <f>COUNTIF(B12:B13,"*")</f>
@@ -14092,10 +13420,10 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E13">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C13 D12:D13 E12:E13" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -14135,7 +13463,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>14</v>
@@ -14146,42 +13474,42 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="158" t="s">
+      <c r="A4" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="169" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="169" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="158" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="158"/>
+      <c r="G5" s="169"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -14224,7 +13552,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
@@ -14237,7 +13565,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
@@ -14250,7 +13578,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="79"/>
@@ -14263,7 +13591,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="79"/>
@@ -14289,7 +13617,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
@@ -14298,10 +13626,10 @@
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="167"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
       <c r="E14" s="80"/>
@@ -14346,7 +13674,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -14357,28 +13685,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="158" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="149" t="s">
+      <c r="C4" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="82" t="s">
         <v>40</v>
       </c>
@@ -14388,7 +13716,7 @@
       <c r="E5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -14415,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -14430,7 +13758,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -14445,7 +13773,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -14460,7 +13788,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -14475,7 +13803,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="25"/>
@@ -14490,7 +13818,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="25"/>
@@ -14505,7 +13833,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="25"/>
@@ -14520,7 +13848,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="25"/>
@@ -14535,7 +13863,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="25"/>
@@ -14550,7 +13878,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="25"/>
@@ -14561,10 +13889,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="83">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -14617,7 +13945,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -14628,28 +13956,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="48" t="s">
         <v>40</v>
       </c>
@@ -14659,7 +13987,7 @@
       <c r="E5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="158"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
@@ -14686,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -14701,7 +14029,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -14716,7 +14044,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -14731,7 +14059,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -14746,7 +14074,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="25"/>
@@ -14761,7 +14089,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="25"/>
@@ -14776,7 +14104,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="25"/>
@@ -14791,7 +14119,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="25"/>
@@ -14806,7 +14134,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="25"/>
@@ -14821,7 +14149,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="25"/>
@@ -14832,10 +14160,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="33">
         <f>SUM(C7:C16)</f>
         <v>0</v>
@@ -14892,7 +14220,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -14903,7 +14231,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -14911,13 +14239,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -15014,7 +14342,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>14</v>
@@ -15025,7 +14353,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -15033,19 +14361,19 @@
         <v>17</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>131</v>
-      </c>
       <c r="F4" s="87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15160,7 +14488,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -15172,27 +14500,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15213,11 +14541,11 @@
       <c r="A7" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
+      <c r="B7" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -15302,7 +14630,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -15314,27 +14642,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15353,13 +14681,13 @@
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="165" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="154" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -15453,7 +14781,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -15464,27 +14792,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15503,13 +14831,13 @@
     </row>
     <row r="7" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="154" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -15603,7 +14931,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>14</v>
@@ -15614,27 +14942,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15653,13 +14981,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="154" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -15753,7 +15081,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
@@ -15770,36 +15098,36 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="141" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
@@ -15809,11 +15137,11 @@
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -15873,7 +15201,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="117" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" s="24">
         <f>COUNTIF(B12:B13,"*")</f>
@@ -15909,13 +15237,13 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E13" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -15963,7 +15291,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15980,36 +15308,36 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="136" t="s">
+      <c r="H9" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="141" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
@@ -16019,11 +15347,11 @@
       <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -16083,7 +15411,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="117" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B14" s="24">
         <f>COUNTIF(B12:B13,"*")</f>
@@ -16119,10 +15447,10 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
@@ -16168,28 +15496,28 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="131" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="131" t="s">
+      <c r="F3" s="138"/>
+      <c r="G3" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="133"/>
+      <c r="H3" s="138"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="27" t="s">
         <v>34</v>
       </c>
@@ -16296,10 +15624,10 @@
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="33">
         <f t="shared" ref="C11:F11" si="0">SUM(C6:C10)</f>
         <v>0</v>
@@ -16316,11 +15644,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="137">
+      <c r="G11" s="142">
         <f>SUM(G10:H10)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="138"/>
+      <c r="H11" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -16359,7 +15687,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L1" s="100" t="s">
         <v>14</v>
@@ -16367,35 +15695,35 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="144" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="146" t="s">
         <v>354</v>
       </c>
-      <c r="C4" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="141" t="s">
+      <c r="G4" s="147"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="146" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="141" t="s">
-        <v>356</v>
-      </c>
-      <c r="J4" s="142"/>
-      <c r="K4" s="143"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
     </row>
     <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="140"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="102" t="s">
         <v>40</v>
       </c>
@@ -16490,10 +15818,10 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="25">
         <f>COUNT(C7:C8)</f>
         <v>0</v>
@@ -16533,12 +15861,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
@@ -16589,7 +15917,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
@@ -16598,87 +15926,87 @@
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="129" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" s="131" t="s">
+      <c r="C11" s="134" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="129" t="s">
+      <c r="E11" s="151"/>
+      <c r="F11" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="129" t="s">
+      <c r="H11" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="129" t="s">
+      <c r="I11" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="129" t="s">
+      <c r="J11" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="129" t="s">
+      <c r="K11" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="129" t="s">
+      <c r="L11" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="129" t="s">
+      <c r="M11" s="134" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
@@ -16690,10 +16018,10 @@
       <c r="C13" s="29">
         <v>3</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="149">
         <v>4</v>
       </c>
-      <c r="E13" s="145"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="29">
         <v>5</v>
       </c>
@@ -16787,6 +16115,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="F11:F12"/>
@@ -16795,11 +16128,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G15 L14:L15" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/common/required/kriteria9/aps/template/penilaian.xlsx
+++ b/common/required/kriteria9/aps/template/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\php\kriteria\common\required\kriteria9\aps\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF9272-A27B-4A9B-8061-A6DE369925CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615EC33-25F9-4203-9551-B6C4D949AEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="839" firstSheet="28" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="839" firstSheet="28" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="68" r:id="rId1"/>
@@ -2810,36 +2810,36 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2870,21 +2870,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2897,12 +2897,12 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2948,6 +2948,15 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2972,20 +2981,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2996,67 +2996,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3586,62 +3526,62 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3682,23 +3622,23 @@
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,13 +3680,13 @@
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -4028,9 +3968,9 @@
       <c r="G17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
       <c r="K17" s="11" t="str">
         <f>IF(H17="Minimum","Studi telah mendapt ijin pembukaan program studi baru. Pengajuan usulan akreditasi pertama","")</f>
         <v/>
@@ -4319,13 +4259,13 @@
       <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -4377,9 +4317,9 @@
       <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -4435,23 +4375,23 @@
       <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4493,23 +4433,23 @@
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="133"/>
-      <c r="X33" s="133"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4721,23 +4661,23 @@
       <c r="G41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="125"/>
-      <c r="T41" s="125"/>
-      <c r="U41" s="125"/>
-      <c r="V41" s="125"/>
-      <c r="W41" s="125"/>
-      <c r="X41" s="125"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="129"/>
+      <c r="V41" s="129"/>
+      <c r="W41" s="129"/>
+      <c r="X41" s="129"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,23 +4715,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="125"/>
-      <c r="S43" s="125"/>
-      <c r="T43" s="125"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="125"/>
-      <c r="W43" s="125"/>
-      <c r="X43" s="125"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="129"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4829,12 +4769,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="127" t="s">
+      <c r="H45" s="124" t="s">
         <v>396</v>
       </c>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -4844,10 +4784,10 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="128" t="s">
+      <c r="U45" s="125" t="s">
         <v>397</v>
       </c>
-      <c r="V45" s="128"/>
+      <c r="V45" s="125"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
@@ -4891,13 +4831,13 @@
       <c r="G47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="129"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4949,16 +4889,16 @@
       <c r="G49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="125"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -5007,15 +4947,15 @@
       <c r="G51" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="125"/>
-      <c r="P51" s="125"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="129"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -5190,12 +5130,12 @@
       <c r="R57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S57" s="125"/>
-      <c r="T57" s="125"/>
-      <c r="U57" s="125"/>
-      <c r="V57" s="125"/>
-      <c r="W57" s="125"/>
-      <c r="X57" s="125"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="129"/>
+      <c r="V57" s="129"/>
+      <c r="W57" s="129"/>
+      <c r="X57" s="129"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5250,9 +5190,9 @@
       <c r="R59" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S59" s="126"/>
-      <c r="T59" s="126"/>
-      <c r="U59" s="126"/>
+      <c r="S59" s="133"/>
+      <c r="T59" s="133"/>
+      <c r="U59" s="133"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -5266,10 +5206,10 @@
       <c r="C60" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="D60" s="124">
+      <c r="D60" s="132">
         <v>20200131</v>
       </c>
-      <c r="E60" s="124"/>
+      <c r="E60" s="132"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5326,6 +5266,12 @@
     <protectedRange sqref="H5:I5 H31:I31" name="Nama PT"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H51:P51"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="S59:U59"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="A2:Y2"/>
@@ -5339,12 +5285,6 @@
     <mergeCell ref="H33:X33"/>
     <mergeCell ref="H41:X41"/>
     <mergeCell ref="H43:X43"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H51:P51"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="S59:U59"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:J17" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5634,9 +5574,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="136" t="s">
         <v>69</v>
       </c>
@@ -5651,8 +5591,8 @@
       <c r="I8" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
     </row>
     <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135"/>
@@ -5739,17 +5679,17 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="154" t="s">
         <v>428</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
       <c r="J13" s="80" t="e">
         <f>AVERAGE(J11:J12)</f>
         <v>#DIV/0!</v>
@@ -5760,17 +5700,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="154" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
       <c r="J14" s="80" t="e">
         <f>AVERAGEIFS(J11:J12,C11:C12,"V")</f>
         <v>#DIV/0!</v>
@@ -5782,18 +5722,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:I7"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C12" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -9984,20 +9924,20 @@
       <c r="E7" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="170" t="s">
+      <c r="F7" s="173" t="s">
         <v>366</v>
       </c>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="175"/>
       <c r="I7" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="170" t="s">
+      <c r="J7" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="172"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="175"/>
       <c r="N7" s="134" t="s">
         <v>150</v>
       </c>
@@ -10122,12 +10062,12 @@
       <c r="O11" s="71"/>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="182"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="172"/>
       <c r="E12" s="69">
         <f>COUNTIF(E10:E11,"V")</f>
         <v>0</v>
@@ -10326,12 +10266,12 @@
       <c r="B3" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
       <c r="G3" s="159" t="s">
         <v>166</v>
       </c>
@@ -10442,10 +10382,10 @@
       <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="177"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="73">
         <f>SUM(C6:C10)</f>
         <v>0</v>
@@ -10583,8 +10523,8 @@
       <c r="A8" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="143"/>
       <c r="E8" s="25">
         <f>COUNTIF(E6:E7,"*")</f>
@@ -10994,8 +10934,8 @@
       <c r="A8" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="143"/>
       <c r="E8" s="25">
         <f>COUNTIF(E6:E7,"*")</f>
@@ -11118,8 +11058,8 @@
       <c r="A8" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="143"/>
       <c r="E8" s="25">
         <f>COUNTIF(E6:E7,"*")</f>
@@ -11413,7 +11353,7 @@
       <c r="A12" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="179"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="143"/>
       <c r="D12" s="25">
         <f>COUNTIF(D10:D11,"*")</f>
@@ -11432,21 +11372,21 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:F10">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:F11" xr:uid="{00000000-0002-0000-2000-000000000000}">
@@ -11608,7 +11548,7 @@
       <c r="A13" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="179"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="143"/>
       <c r="D13" s="25">
         <f>COUNTIF(D11:D12,"*")</f>
@@ -11627,18 +11567,18 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F13">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -12331,11 +12271,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:A22"/>
@@ -12346,11 +12286,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -13127,12 +13067,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14:D14"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13420,10 +13360,10 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E13">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C13 D12:D13 E12:E13" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -13448,7 +13388,7 @@
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13626,14 +13566,26 @@
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="80">
+        <f>SUM(C7:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="80">
+        <f t="shared" ref="D14:F14" si="0">SUM(D7:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G14" s="74"/>
     </row>
   </sheetData>
@@ -13931,7 +13883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14198,14 +14150,14 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14278,56 +14230,42 @@
       <c r="C7" s="60"/>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="25"/>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="143"/>
+      <c r="C8" s="25">
+        <f>COUNTIF(C6:C7,"*")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <f>SUM(D6:D7)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14416,47 +14354,23 @@
       <c r="E7" s="25"/>
       <c r="F7" s="115"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="143"/>
+      <c r="C8" s="25">
+        <f>COUNTIF(C6:C7,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="115"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="115"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="115"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="115"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2B00-000000000000}"/>
   </hyperlinks>
@@ -14467,14 +14381,14 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14564,40 +14478,20 @@
       <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>3</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="61">
+        <f>COUNTIF(B8:B9,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>4</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>5</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2C00-000000000000}"/>
@@ -14609,14 +14503,14 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14706,49 +14600,29 @@
       <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>3</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="61">
+        <f>COUNTIF(B8:B9,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>4</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="A11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>5</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="41"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A13" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2D00-000000000000}"/>
@@ -14760,14 +14634,14 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14856,49 +14730,29 @@
       <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>3</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="61">
+        <f>COUNTIF(B8:B9,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>4</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>5</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="41"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2E00-000000000000}"/>
@@ -14910,14 +14764,14 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15006,40 +14860,20 @@
       <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>3</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="143"/>
+      <c r="C10" s="61">
+        <f>COUNTIF(B8:B9,"*")</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="62"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>4</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>5</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2F00-000000000000}"/>
@@ -15237,13 +15071,13 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E13" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -15447,13 +15281,13 @@
     <mergeCell ref="H9:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:E12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:E13" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -15702,28 +15536,28 @@
       <c r="A4" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="147" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="146" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="144" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="146" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144" t="s">
         <v>355</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="146"/>
     </row>
     <row r="5" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="145"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="102" t="s">
         <v>40</v>
       </c>
@@ -16115,11 +15949,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="F11:F12"/>
@@ -16128,6 +15957,11 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G15 L14:L15" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/common/required/kriteria9/aps/template/penilaian.xlsx
+++ b/common/required/kriteria9/aps/template/penilaian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\php\kriteria\common\required\kriteria9\aps\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adryanev\Code\php\kriteria\common\required\kriteria9\aps\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615EC33-25F9-4203-9551-B6C4D949AEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A8177-F44A-44DD-8B32-C337CEC7296E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="839" firstSheet="28" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="2400" windowWidth="21600" windowHeight="11505" tabRatio="839" firstSheet="26" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="68" r:id="rId1"/>
@@ -2810,6 +2810,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2825,21 +2834,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2897,11 +2897,11 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3526,62 +3526,62 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3622,23 +3622,23 @@
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -3680,13 +3680,13 @@
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3968,9 +3968,9 @@
       <c r="G17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
       <c r="K17" s="11" t="str">
         <f>IF(H17="Minimum","Studi telah mendapt ijin pembukaan program studi baru. Pengajuan usulan akreditasi pertama","")</f>
         <v/>
@@ -4259,13 +4259,13 @@
       <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -4317,9 +4317,9 @@
       <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -4375,23 +4375,23 @@
       <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,23 +4433,23 @@
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
+      <c r="U33" s="133"/>
+      <c r="V33" s="133"/>
+      <c r="W33" s="133"/>
+      <c r="X33" s="133"/>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4661,23 +4661,23 @@
       <c r="G41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="129"/>
-      <c r="T41" s="129"/>
-      <c r="U41" s="129"/>
-      <c r="V41" s="129"/>
-      <c r="W41" s="129"/>
-      <c r="X41" s="129"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="125"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4715,23 +4715,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
-      <c r="X43" s="129"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4769,12 +4769,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="124" t="s">
+      <c r="H45" s="127" t="s">
         <v>396</v>
       </c>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -4784,10 +4784,10 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="125" t="s">
+      <c r="U45" s="128" t="s">
         <v>397</v>
       </c>
-      <c r="V45" s="125"/>
+      <c r="V45" s="128"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
@@ -4831,13 +4831,13 @@
       <c r="G47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="129"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4889,16 +4889,16 @@
       <c r="G49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="129"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="129"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="125"/>
+      <c r="Q49" s="125"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -4947,15 +4947,15 @@
       <c r="G51" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="129"/>
-      <c r="P51" s="129"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
+      <c r="M51" s="125"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="125"/>
+      <c r="P51" s="125"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -5130,12 +5130,12 @@
       <c r="R57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S57" s="129"/>
-      <c r="T57" s="129"/>
-      <c r="U57" s="129"/>
-      <c r="V57" s="129"/>
-      <c r="W57" s="129"/>
-      <c r="X57" s="129"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="125"/>
+      <c r="U57" s="125"/>
+      <c r="V57" s="125"/>
+      <c r="W57" s="125"/>
+      <c r="X57" s="125"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5190,9 +5190,9 @@
       <c r="R59" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S59" s="133"/>
-      <c r="T59" s="133"/>
-      <c r="U59" s="133"/>
+      <c r="S59" s="126"/>
+      <c r="T59" s="126"/>
+      <c r="U59" s="126"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -5206,10 +5206,10 @@
       <c r="C60" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="D60" s="132">
+      <c r="D60" s="124">
         <v>20200131</v>
       </c>
-      <c r="E60" s="132"/>
+      <c r="E60" s="124"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5266,12 +5266,6 @@
     <protectedRange sqref="H5:I5 H31:I31" name="Nama PT"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H51:P51"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="S59:U59"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="A2:Y2"/>
@@ -5285,6 +5279,12 @@
     <mergeCell ref="H33:X33"/>
     <mergeCell ref="H41:X41"/>
     <mergeCell ref="H43:X43"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H51:P51"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="S59:U59"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:J17" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5311,7 +5311,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5473,18 +5473,18 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="81" t="e">
-        <f t="shared" ref="F8" si="0">AVERAGE(C8:E8)</f>
+        <f>AVERAGE(C8:E8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="81" t="e">
-        <f t="shared" ref="J8" si="1">AVERAGE(G8:I8)</f>
+        <f t="shared" ref="J8" si="0">AVERAGE(G8:I8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="81" t="e">
-        <f t="shared" ref="K8" si="2">AVERAGE(F8,J8)</f>
+        <f t="shared" ref="K8" si="1">AVERAGE(F8,J8)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5574,9 +5574,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
       <c r="D8" s="136" t="s">
         <v>69</v>
       </c>
@@ -5591,8 +5591,8 @@
       <c r="I8" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
     </row>
     <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135"/>
@@ -5679,17 +5679,17 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
       <c r="J13" s="80" t="e">
         <f>AVERAGE(J11:J12)</f>
         <v>#DIV/0!</v>
@@ -5700,17 +5700,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="153" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
       <c r="J14" s="80" t="e">
         <f>AVERAGEIFS(J11:J12,C11:C12,"V")</f>
         <v>#DIV/0!</v>
@@ -5722,18 +5722,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C12" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -5756,7 +5756,7 @@
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,16 +5918,16 @@
       <c r="E15" s="120"/>
       <c r="F15" s="120"/>
       <c r="G15" s="120">
-        <f>COUNT(G13:G14)</f>
+        <f>COUNTIF(G13:G14,"*")</f>
         <v>0</v>
       </c>
       <c r="H15" s="120">
-        <f>COUNT(H13:H14)</f>
+        <f>COUNTIF(H13:H14, "*")</f>
         <v>0</v>
       </c>
       <c r="I15" s="120"/>
       <c r="J15" s="120">
-        <f>COUNT(J13:J14)</f>
+        <f>COUNTIF(J13:J14,"*")</f>
         <v>0</v>
       </c>
     </row>
@@ -11220,7 +11220,7 @@
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11356,15 +11356,15 @@
       <c r="B12" s="181"/>
       <c r="C12" s="143"/>
       <c r="D12" s="25">
-        <f>COUNTIF(D10:D11,"*")</f>
+        <f>COUNTIF(D10:D11,"V")</f>
         <v>0</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" ref="E12:F12" si="0">COUNTIF(E10:E11,"*")</f>
+        <f>COUNTIF(E10:E11,"V")</f>
         <v>0</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F10:F11,"V")</f>
         <v>0</v>
       </c>
       <c r="G12" s="34"/>
@@ -11409,7 +11409,7 @@
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11551,15 +11551,15 @@
       <c r="B13" s="181"/>
       <c r="C13" s="143"/>
       <c r="D13" s="25">
-        <f>COUNTIF(D11:D12,"*")</f>
+        <f>COUNTIF(D11:D12,"V")</f>
         <v>0</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" ref="E13:F13" si="0">COUNTIF(E11:E12,"*")</f>
+        <f>COUNTIF(E11:E12,"V")</f>
         <v>0</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F11:F12,"V")</f>
         <v>0</v>
       </c>
       <c r="G13" s="34"/>
@@ -11600,9 +11600,9 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11707,9 +11707,7 @@
       <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="31">
-        <v>101</v>
-      </c>
+      <c r="B7" s="31"/>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
       <c r="E7" s="25"/>
@@ -11722,9 +11720,7 @@
       <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="31">
-        <v>97</v>
-      </c>
+      <c r="B8" s="31"/>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
       <c r="E8" s="76"/>
@@ -11737,9 +11733,7 @@
       <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="31">
-        <v>89</v>
-      </c>
+      <c r="B9" s="31"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
       <c r="E9" s="76"/>
@@ -11859,9 +11853,7 @@
       <c r="A15" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="31">
-        <v>111</v>
-      </c>
+      <c r="B15" s="31"/>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
       <c r="E15" s="76"/>
@@ -11876,9 +11868,7 @@
       <c r="A16" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="31">
-        <v>102</v>
-      </c>
+      <c r="B16" s="31"/>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
       <c r="E16" s="76"/>
@@ -11893,9 +11883,7 @@
       <c r="A17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="31">
-        <v>101</v>
-      </c>
+      <c r="B17" s="31"/>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
       <c r="E17" s="76"/>
@@ -11910,9 +11898,7 @@
       <c r="A18" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="31">
-        <v>97</v>
-      </c>
+      <c r="B18" s="31"/>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
@@ -12026,9 +12012,7 @@
       <c r="A24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="31">
-        <v>20</v>
-      </c>
+      <c r="B24" s="31"/>
       <c r="C24" s="76"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -12043,9 +12027,7 @@
       <c r="A25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="31">
-        <v>16</v>
-      </c>
+      <c r="B25" s="31"/>
       <c r="C25" s="76"/>
       <c r="D25" s="76"/>
       <c r="E25" s="25"/>
@@ -12060,9 +12042,7 @@
       <c r="A26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="31">
-        <v>18</v>
-      </c>
+      <c r="B26" s="31"/>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
       <c r="E26" s="76"/>
@@ -12188,9 +12168,7 @@
       <c r="A32" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="31">
-        <v>6</v>
-      </c>
+      <c r="B32" s="31"/>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
       <c r="E32" s="25"/>
@@ -12205,9 +12183,7 @@
       <c r="A33" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="31">
-        <v>6</v>
-      </c>
+      <c r="B33" s="31"/>
       <c r="C33" s="76"/>
       <c r="D33" s="76"/>
       <c r="E33" s="76"/>
@@ -12222,9 +12198,7 @@
       <c r="A34" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="31">
-        <v>6</v>
-      </c>
+      <c r="B34" s="31"/>
       <c r="C34" s="76"/>
       <c r="D34" s="76"/>
       <c r="E34" s="76"/>
@@ -12239,9 +12213,7 @@
       <c r="A35" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="31">
-        <v>8</v>
-      </c>
+      <c r="B35" s="31"/>
       <c r="C35" s="76"/>
       <c r="D35" s="76"/>
       <c r="E35" s="76"/>
@@ -12256,9 +12228,7 @@
       <c r="A36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="31">
-        <v>10</v>
-      </c>
+      <c r="B36" s="31"/>
       <c r="C36" s="76"/>
       <c r="D36" s="76"/>
       <c r="E36" s="76"/>
@@ -12271,11 +12241,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:A22"/>
@@ -12286,11 +12256,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -12305,7 +12275,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -14636,12 +14606,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14766,7 +14736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
@@ -15507,7 +15477,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15657,11 +15627,11 @@
       </c>
       <c r="B9" s="143"/>
       <c r="C9" s="25">
-        <f>COUNT(C7:C8)</f>
+        <f>SUM(C7:C8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="25">
-        <f t="shared" ref="D9:K9" si="0">COUNT(D7:D8)</f>
+        <f t="shared" ref="D9:K9" si="0">SUM(D7:D8)</f>
         <v>0</v>
       </c>
       <c r="E9" s="25">
@@ -15718,7 +15688,7 @@
       <pane xSplit="1" ySplit="13" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15949,6 +15919,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="F11:F12"/>
@@ -15957,11 +15932,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G15 L14:L15" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/common/required/kriteria9/aps/template/penilaian.xlsx
+++ b/common/required/kriteria9/aps/template/penilaian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adryanev\Code\php\kriteria\common\required\kriteria9\aps\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A8177-F44A-44DD-8B32-C337CEC7296E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC31B6-B915-43F9-9747-00FA07704367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="2400" windowWidth="21600" windowHeight="11505" tabRatio="839" firstSheet="26" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="839" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="68" r:id="rId1"/>
@@ -40,11 +40,11 @@
     <sheet name="4" sheetId="62" r:id="rId25"/>
     <sheet name="5a" sheetId="35" r:id="rId26"/>
     <sheet name="5b" sheetId="36" r:id="rId27"/>
-    <sheet name="5c" sheetId="37" r:id="rId28"/>
-    <sheet name="6a" sheetId="38" r:id="rId29"/>
-    <sheet name="6b" sheetId="39" r:id="rId30"/>
-    <sheet name="7" sheetId="40" r:id="rId31"/>
-    <sheet name="8a" sheetId="41" r:id="rId32"/>
+    <sheet name="6a" sheetId="38" r:id="rId28"/>
+    <sheet name="6b" sheetId="39" r:id="rId29"/>
+    <sheet name="7" sheetId="40" r:id="rId30"/>
+    <sheet name="8a" sheetId="41" r:id="rId31"/>
+    <sheet name="5c" sheetId="37" r:id="rId32"/>
     <sheet name="8b1" sheetId="42" r:id="rId33"/>
     <sheet name="8b2" sheetId="43" r:id="rId34"/>
     <sheet name="8c" sheetId="44" r:id="rId35"/>
@@ -72,10 +72,10 @@
     <definedName name="diploma" localSheetId="22">#REF!</definedName>
     <definedName name="diploma" localSheetId="23">#REF!</definedName>
     <definedName name="diploma" localSheetId="26">#REF!</definedName>
+    <definedName name="diploma" localSheetId="31">#REF!</definedName>
     <definedName name="diploma" localSheetId="27">#REF!</definedName>
     <definedName name="diploma" localSheetId="28">#REF!</definedName>
     <definedName name="diploma" localSheetId="29">#REF!</definedName>
-    <definedName name="diploma" localSheetId="30">#REF!</definedName>
     <definedName name="diploma" localSheetId="33">#REF!</definedName>
     <definedName name="diploma" localSheetId="36">#REF!</definedName>
     <definedName name="diploma" localSheetId="40">#REF!</definedName>
@@ -2810,36 +2810,36 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2897,11 +2897,11 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3526,62 +3526,62 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3622,23 +3622,23 @@
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -3680,13 +3680,13 @@
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -3968,9 +3968,9 @@
       <c r="G17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
       <c r="K17" s="11" t="str">
         <f>IF(H17="Minimum","Studi telah mendapt ijin pembukaan program studi baru. Pengajuan usulan akreditasi pertama","")</f>
         <v/>
@@ -4259,13 +4259,13 @@
       <c r="G27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -4317,9 +4317,9 @@
       <c r="G29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -4375,23 +4375,23 @@
       <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
       <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,23 +4433,23 @@
       <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="133"/>
-      <c r="X33" s="133"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4661,23 +4661,23 @@
       <c r="G41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="125"/>
-      <c r="T41" s="125"/>
-      <c r="U41" s="125"/>
-      <c r="V41" s="125"/>
-      <c r="W41" s="125"/>
-      <c r="X41" s="125"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="129"/>
+      <c r="V41" s="129"/>
+      <c r="W41" s="129"/>
+      <c r="X41" s="129"/>
       <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4715,23 +4715,23 @@
       <c r="E43" s="9"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="125"/>
-      <c r="S43" s="125"/>
-      <c r="T43" s="125"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="125"/>
-      <c r="W43" s="125"/>
-      <c r="X43" s="125"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129"/>
+      <c r="X43" s="129"/>
       <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="1:25" s="7" customFormat="1" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4769,12 +4769,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="127" t="s">
+      <c r="H45" s="124" t="s">
         <v>396</v>
       </c>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -4784,10 +4784,10 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
       <c r="T45" s="19"/>
-      <c r="U45" s="128" t="s">
+      <c r="U45" s="125" t="s">
         <v>397</v>
       </c>
-      <c r="V45" s="128"/>
+      <c r="V45" s="125"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="9"/>
@@ -4831,13 +4831,13 @@
       <c r="G47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="129"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4889,16 +4889,16 @@
       <c r="G49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="125"/>
-      <c r="Q49" s="125"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -4947,15 +4947,15 @@
       <c r="G51" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="125"/>
-      <c r="P51" s="125"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
+      <c r="P51" s="129"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -5130,12 +5130,12 @@
       <c r="R57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S57" s="125"/>
-      <c r="T57" s="125"/>
-      <c r="U57" s="125"/>
-      <c r="V57" s="125"/>
-      <c r="W57" s="125"/>
-      <c r="X57" s="125"/>
+      <c r="S57" s="129"/>
+      <c r="T57" s="129"/>
+      <c r="U57" s="129"/>
+      <c r="V57" s="129"/>
+      <c r="W57" s="129"/>
+      <c r="X57" s="129"/>
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5190,9 +5190,9 @@
       <c r="R59" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S59" s="126"/>
-      <c r="T59" s="126"/>
-      <c r="U59" s="126"/>
+      <c r="S59" s="133"/>
+      <c r="T59" s="133"/>
+      <c r="U59" s="133"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -5206,10 +5206,10 @@
       <c r="C60" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="D60" s="124">
+      <c r="D60" s="132">
         <v>20200131</v>
       </c>
-      <c r="E60" s="124"/>
+      <c r="E60" s="132"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5266,6 +5266,12 @@
     <protectedRange sqref="H5:I5 H31:I31" name="Nama PT"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="H47:N47"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H51:P51"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="S59:U59"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="A2:Y2"/>
@@ -5279,12 +5285,6 @@
     <mergeCell ref="H33:X33"/>
     <mergeCell ref="H41:X41"/>
     <mergeCell ref="H43:X43"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="H47:N47"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H51:P51"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="S59:U59"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:J17" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5574,9 +5574,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="136" t="s">
         <v>69</v>
       </c>
@@ -5591,8 +5591,8 @@
       <c r="I8" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
     </row>
     <row r="9" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="135"/>
@@ -5679,17 +5679,17 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="154" t="s">
         <v>428</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
       <c r="J13" s="80" t="e">
         <f>AVERAGE(J11:J12)</f>
         <v>#DIV/0!</v>
@@ -5700,17 +5700,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="154" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
       <c r="J14" s="80" t="e">
         <f>AVERAGEIFS(J11:J12,C11:C12,"V")</f>
         <v>#DIV/0!</v>
@@ -5722,18 +5722,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:I7"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C12" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -9103,12 +9103,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:D12"/>
+      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10227,199 +10227,6 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="L1" sqref="L1"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="6" width="9.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="176" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="159" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="160"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22">
-        <v>2</v>
-      </c>
-      <c r="C5" s="22">
-        <v>3</v>
-      </c>
-      <c r="D5" s="22">
-        <v>4</v>
-      </c>
-      <c r="E5" s="22">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22">
-        <v>6</v>
-      </c>
-      <c r="G5" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>1</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>2</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="179" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="73">
-        <f>SUM(C6:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
-        <f t="shared" ref="D11:F11" si="0">SUM(D6:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -10543,294 +10350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="134" t="s">
-        <v>283</v>
-      </c>
-      <c r="C14" s="134" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="136" t="s">
-        <v>285</v>
-      </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="134" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="84" t="s">
-        <v>287</v>
-      </c>
-      <c r="E15" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="G15" s="135"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29">
-        <v>2</v>
-      </c>
-      <c r="C16" s="29">
-        <v>2</v>
-      </c>
-      <c r="D16" s="29">
-        <v>3</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29">
-        <v>4</v>
-      </c>
-      <c r="G16" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>1</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>2</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>3</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>4</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>5</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:G15"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D21" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>$B$4:$B$12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -10954,7 +10474,294 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="134" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="134" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" s="135"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>1</v>
+      </c>
+      <c r="B16" s="29">
+        <v>2</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29">
+        <v>4</v>
+      </c>
+      <c r="G16" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>1</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>2</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>3</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>4</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>5</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D21" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$B$4:$B$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -11079,7 +10886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -11206,6 +11013,199 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" customWidth="1"/>
+    <col min="3" max="6" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="176" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="159" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="160"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22">
+        <v>6</v>
+      </c>
+      <c r="G5" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>2</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>3</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>4</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>5</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="179" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="180"/>
+      <c r="C11" s="73">
+        <f>SUM(C6:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="73">
+        <f t="shared" ref="D11:F11" si="0">SUM(D6:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12241,11 +12241,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:A22"/>
@@ -12256,11 +12256,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L1" location="'Daftar Tabel'!A1" display="&lt;&lt;&lt; Daftar Tabel" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
@@ -14606,7 +14606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
@@ -15919,11 +15919,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="F11:F12"/>
@@ -15932,6 +15927,11 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G15 L14:L15" xr:uid="{00000000-0002-0000-0800-000000000000}">
